--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF232AD-6979-498F-827B-DC07CDF0FF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3578C-21A0-44CD-AE0B-921BD7FCFF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="13710" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30570" yWindow="0" windowWidth="7830" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="226">
   <si>
     <t>type</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>Presença de sinais de perigo/paludismo severo ou complicado?</t>
-  </si>
-  <si>
-    <t>Se sim, fazer gota e esfregaço sanguineo</t>
   </si>
   <si>
     <t>evento_adverso</t>
@@ -682,12 +679,6 @@
     <t>{id_estudo: data('id_estudo')}</t>
   </si>
   <si>
-    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data:('sexo')}</t>
-  </si>
-  <si>
-    <t>integre</t>
-  </si>
-  <si>
     <t>visita_id</t>
   </si>
   <si>
@@ -710,6 +701,26 @@
   </si>
   <si>
     <t>id_estudo</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo')}</t>
+  </si>
+  <si>
+    <t>if // aq</t>
+  </si>
+  <si>
+    <t>end if //aq</t>
+  </si>
+  <si>
+    <t>if // vomito</t>
+  </si>
+  <si>
+    <t>end if //vomito</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align:center;background-color:#FA0;padding:15px;"&gt;  
+Se sim, fazer gota e esfregaço sanguineo    
+  &lt;/h2&gt;</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1419,13 +1430,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1534,10 +1545,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="63" x14ac:dyDescent="0.25">
@@ -1545,10 +1556,10 @@
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1564,10 +1575,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L8" s="2" t="b">
         <v>1</v>
@@ -1580,12 +1591,12 @@
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
@@ -1595,10 +1606,10 @@
         <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1616,18 +1627,18 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
@@ -1648,7 +1659,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>132</v>
@@ -1659,20 +1670,20 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1683,77 +1694,73 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24"/>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1764,10 +1771,10 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,10 +1785,10 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,52 +1799,52 @@
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1845,239 +1852,220 @@
         <v>9</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="15" t="s">
+      <c r="G38" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>140</v>
-      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+      <c r="D48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="D49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>130</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H52" s="15"/>
     </row>
@@ -2085,138 +2073,141 @@
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E55" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G53" s="15" t="s">
+      <c r="F56" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>223</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59"/>
+      <c r="D58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="B62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F63" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="H63" s="15"/>
     </row>
     <row r="64" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>138</v>
-      </c>
+      <c r="B64" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -2226,98 +2217,137 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="D67" s="2" t="s">
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="2" t="s">
+      <c r="D77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,57 +2935,57 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3330,9 +3360,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3386,54 +3416,54 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
         <v>134</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" t="s">
         <v>135</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3580,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3588,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,23 +3634,23 @@
         <v>57</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3658,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3674,7 @@
         <v>53</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3682,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3690,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,15 +3698,15 @@
         <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3714,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3722,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3730,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3746,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3754,7 @@
         <v>83</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3762,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3770,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3802,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3818,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3842,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3850,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3858,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3866,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3874,7 @@
         <v>57</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3882,7 @@
         <v>124</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3890,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3906,7 @@
         <v>124</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3922,7 @@
         <v>56</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3938,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3954,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3578C-21A0-44CD-AE0B-921BD7FCFF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C114F7D-9E38-4771-879E-42B875CEA4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="0" windowWidth="7830" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13005" yWindow="14070" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="234">
   <si>
     <t>type</t>
   </si>
@@ -661,9 +661,6 @@
     <t>comentario</t>
   </si>
   <si>
-    <t>Formulário de seguimento de caso dia {{visita_id}}</t>
-  </si>
-  <si>
     <t>data('visita_id')&lt;3</t>
   </si>
   <si>
@@ -701,9 +698,6 @@
   </si>
   <si>
     <t>id_estudo</t>
-  </si>
-  <si>
-    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo')}</t>
   </si>
   <si>
     <t>if // aq</t>
@@ -721,6 +715,36 @@
     <t>&lt;h2 style="text-align:center;background-color:#FA0;padding:15px;"&gt;  
 Se sim, fazer gota e esfregaço sanguineo    
   &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>adate.ageInDays(data('date_rastreio'))</t>
+  </si>
+  <si>
+    <t>idade_mes</t>
+  </si>
+  <si>
+    <t>(data('DOB_ou_idade')=='1')?adate.ageInMonths(data('dn')):(12*data('ano')+data('mes'))</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso do dia {{calculates.visita_id}}</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>(calculates.idade_mes()&lt;12)?(data('dose_AQ')=='1'):(data('dose_AQ')=='2')</t>
+  </si>
+  <si>
+    <t>A dose selecionada nao corresponde com a do idade da crianca</t>
+  </si>
+  <si>
+    <t>date_rastreio</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo'), date_rastreio:data('date_rastreio')}</t>
   </si>
 </sst>
 </file>
@@ -1430,13 +1454,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1450,15 +1474,17 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="4"/>
-    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="4"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1486,61 +1512,67 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1548,10 +1580,10 @@
         <v>166</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1562,15 +1594,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1580,18 +1612,18 @@
       <c r="G8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L8" s="2" t="b">
+      <c r="N8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>147</v>
       </c>
@@ -1601,7 +1633,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
@@ -1612,14 +1644,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1665,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>151</v>
       </c>
@@ -1644,14 +1676,14 @@
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1715,7 @@
         <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,7 +1865,7 @@
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +1893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>112</v>
       </c>
@@ -1899,7 +1931,7 @@
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -1914,7 +1946,7 @@
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>114</v>
       </c>
@@ -1924,9 +1956,9 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="2" t="s">
         <v>47</v>
@@ -1934,7 +1966,7 @@
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -1949,7 +1981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>45</v>
@@ -1960,7 +1992,7 @@
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
@@ -1971,7 +2003,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
@@ -1986,7 +2018,7 @@
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
@@ -1999,7 +2031,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>47</v>
       </c>
@@ -2010,7 +2042,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2019,7 +2051,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -2027,23 +2059,23 @@
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
         <v>46</v>
       </c>
@@ -2054,7 +2086,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15" t="s">
@@ -2069,7 +2101,7 @@
       </c>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15" t="s">
@@ -2083,8 +2115,14 @@
         <v>123</v>
       </c>
       <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15" t="s">
@@ -2099,7 +2137,7 @@
       </c>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
@@ -2115,8 +2153,14 @@
         <v>126</v>
       </c>
       <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
@@ -2133,9 +2177,9 @@
       </c>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>196</v>
@@ -2143,7 +2187,7 @@
       <c r="D57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
         <v>124</v>
       </c>
@@ -2154,28 +2198,28 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
@@ -2192,7 +2236,7 @@
       </c>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>121</v>
       </c>
@@ -2285,7 +2329,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="2"/>
       <c r="F71" s="2"/>
@@ -2337,7 +2381,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2"/>
       <c r="F77" s="2"/>
@@ -2351,7 +2395,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -3360,9 +3404,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3431,10 +3475,10 @@
         <v>145</v>
       </c>
       <c r="F2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>135</v>
@@ -3457,10 +3501,10 @@
         <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
         <v>135</v>
@@ -3540,7 +3584,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3558,12 +3602,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3577,10 +3629,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3598,11 +3650,11 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>24</v>
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,39 +3662,39 @@
         <v>9</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3650,47 +3702,47 @@
         <v>165</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>9</v>
-      </c>
       <c r="B14" s="21" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B16" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,39 +3750,39 @@
         <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3738,31 +3790,31 @@
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3770,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3778,7 +3830,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3838,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +3846,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,7 +3854,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,7 +3862,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,63 +3886,63 @@
         <v>9</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B37" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B38" s="17" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>191</v>
+      <c r="B39" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,39 +3950,39 @@
         <v>9</v>
       </c>
       <c r="B43" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B45" s="16" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B47" s="17" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,15 +3990,15 @@
         <v>9</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,6 +4006,14 @@
         <v>4</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>205</v>
       </c>
     </row>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C114F7D-9E38-4771-879E-42B875CEA4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40074FD-B348-4C37-8230-A3CE1B8FFF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13005" yWindow="14070" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="271">
   <si>
     <t>type</t>
   </si>
@@ -477,15 +477,6 @@
   </si>
   <si>
     <t>id_estudo=?</t>
-  </si>
-  <si>
-    <t>Código do estudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>O código de estudo introduzido não corresponte com o codigo do estudo</t>
   </si>
   <si>
     <t>Estás a fazer o seguimento de {{data.nome}}, ID de estudo: {{data.id_estudo}} 
@@ -550,9 +541,6 @@
     <t>idestudo</t>
   </si>
   <si>
-    <t>data('idestudo') != data('id_estudo')</t>
-  </si>
-  <si>
     <t>erro</t>
   </si>
   <si>
@@ -659,9 +647,6 @@
   </si>
   <si>
     <t>comentario</t>
-  </si>
-  <si>
-    <t>data('visita_id')&lt;3</t>
   </si>
   <si>
     <t>goto ending</t>
@@ -745,6 +730,132 @@
   </si>
   <si>
     <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo'), date_rastreio:data('date_rastreio')}</t>
+  </si>
+  <si>
+    <t>date_rastreio_display</t>
+  </si>
+  <si>
+    <t>adate.display(data('date_rastreio'))</t>
+  </si>
+  <si>
+    <t>dn_display</t>
+  </si>
+  <si>
+    <t>adate.display(data('dn'))</t>
+  </si>
+  <si>
+    <t>acompanhante_info</t>
+  </si>
+  <si>
+    <t>!selected(data('acompanhante'), '1') &amp;&amp; !selected(data('acompanhante'), '2')</t>
+  </si>
+  <si>
+    <t>label_codigo</t>
+  </si>
+  <si>
+    <t>data('cs')=='bafata'?'BA':data('cs')=='bambadinca'?'KN':data('cs')=='cosse'?'CS':data('cs')=='gabu'?'GU':data('cs')=='mafanco'?'MF':data('cs')=='pitche'?'PT':''</t>
+  </si>
+  <si>
+    <t>id_lamina</t>
+  </si>
+  <si>
+    <t>""+ data('id_estudo') + "X" + calculates.visita_id()</t>
+  </si>
+  <si>
+    <t>nao_tel</t>
+  </si>
+  <si>
+    <t>(data('tel_mae')=='88' &amp;&amp; data('tel_pai') == '88') &amp;&amp; (!data('tel_acomp') ||data('tel_acomp') == '88')</t>
+  </si>
+  <si>
+    <t>dn_idade_display</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("DOB " + calculates.dn_display() ) : ("Tem " +data('ano')+" A e " + data('mes') + " M")</t>
+  </si>
+  <si>
+    <t>calculates.visita_id()&lt;3</t>
+  </si>
+  <si>
+    <t>nota_id_lamina</t>
+  </si>
+  <si>
+    <t>nota_lab_dn</t>
+  </si>
+  <si>
+    <t>{{calculates.date_rastreio_display}} | {{calculates.dn_idade_display}}</t>
+  </si>
+  <si>
+    <t>Colheu-se amostra de sangue para a lâmina?</t>
+  </si>
+  <si>
+    <t>Código: {{calculates.id_lamina}}</t>
+  </si>
+  <si>
+    <t>nota_lab</t>
+  </si>
+  <si>
+    <t>Ecreva na lamina de verficacao seguntes dados:</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>picture_lamina</t>
+  </si>
+  <si>
+    <t>Depois de escrever os dados acima na lamina de verificacao, tira a foto:</t>
+  </si>
+  <si>
+    <t>calculates.visita_id()&lt;4 || (calculates.visita_id()&lt;29 &amp;&amp; calculates.visita_id()%7 == 0)</t>
+  </si>
+  <si>
+    <t>dia_programado</t>
+  </si>
+  <si>
+    <t>!calculates.dia_programado()</t>
+  </si>
+  <si>
+    <t>outro_dia</t>
+  </si>
+  <si>
+    <t>tipo_visita</t>
+  </si>
+  <si>
+    <t>Qual é o motivo de visitar a crianca no dia {{calculates.visita_id}}</t>
+  </si>
+  <si>
+    <t>Formulario de seguimento de outro dia, nos Centros de saude</t>
+  </si>
+  <si>
+    <t>Imposibilidade de visitar no dia que corresponde</t>
+  </si>
+  <si>
+    <t>outra razao</t>
+  </si>
+  <si>
+    <t>data('tipo_visita')=='3'</t>
+  </si>
+  <si>
+    <t>Especifica a outra razao de visita no dia {{calculatess.visita_id}}</t>
+  </si>
+  <si>
+    <t>esp_tipovisita</t>
+  </si>
+  <si>
+    <t>no_dateAQ</t>
+  </si>
+  <si>
+    <t>erro_dateAQ</t>
+  </si>
+  <si>
+    <t>(!adate.hasUncertainty(data('date_AQ') || !data('date_AQ')) &amp;&amp; calculates.visita_id()&lt;3</t>
+  </si>
+  <si>
+    <t>Por favor verifica a data introduzida</t>
+  </si>
+  <si>
+    <t>calculates.no_dateAQ()</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1454,13 +1565,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1513,10 +1624,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1577,10 +1688,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
@@ -1588,211 +1699,227 @@
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N8" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="C13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="F17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21"/>
+      <c r="D21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24"/>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,10 +1930,10 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,10 +1944,10 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,52 +1958,52 @@
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="15" t="s">
         <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1884,157 +2011,152 @@
         <v>9</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+    <row r="36" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
+      <c r="C36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="M39" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="B42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="F43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>139</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
+      <c r="B45" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -2043,355 +2165,484 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="A47"/>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
+      <c r="B49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
         <v>46</v>
       </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="F51" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="J52" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K52" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="J53" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K53" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
+      <c r="N54" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>126</v>
-      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="L55" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E57" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="L57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="F58" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="D61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E65" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G63" s="15" t="s">
+      <c r="F65" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
+      <c r="C66" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
-        <v>47</v>
-      </c>
+    <row r="68" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="15"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="D68" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
+      <c r="F68" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
-        <v>122</v>
-      </c>
+    <row r="69" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="D69" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="D70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D78" s="2" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>205</v>
+      <c r="F86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2412,14 +2663,14 @@
   <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A72"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
-    <col min="3" max="3" width="51.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
@@ -2979,73 +3230,95 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="C74" s="1"/>
+    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
@@ -3475,10 +3748,10 @@
         <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>135</v>
@@ -3501,10 +3774,10 @@
         <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
         <v>135</v>
@@ -3581,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3603,23 +3876,91 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="12"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3629,10 +3970,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3654,7 +3995,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3694,23 +4035,23 @@
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,7 +4059,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3734,7 +4075,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3742,7 +4083,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3750,7 +4091,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3758,15 +4099,15 @@
         <v>56</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3774,7 +4115,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +4123,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3790,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,7 +4139,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +4147,7 @@
         <v>56</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3814,7 +4155,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3830,7 +4171,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +4179,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3846,7 +4187,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3854,7 +4195,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3862,7 +4203,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3878,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3886,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3894,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3902,7 +4243,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3918,7 +4259,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3926,7 +4267,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3934,7 +4275,7 @@
         <v>57</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3942,7 +4283,7 @@
         <v>124</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3950,7 +4291,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3958,7 +4299,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3966,7 +4307,7 @@
         <v>124</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3974,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3982,7 +4323,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3990,7 +4331,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,7 +4339,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4347,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4355,31 @@
         <v>4</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40074FD-B348-4C37-8230-A3CE1B8FFF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A3AF17-2165-42D3-9131-77101F33E039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="273">
   <si>
     <t>type</t>
   </si>
@@ -849,13 +849,19 @@
     <t>erro_dateAQ</t>
   </si>
   <si>
-    <t>(!adate.hasUncertainty(data('date_AQ') || !data('date_AQ')) &amp;&amp; calculates.visita_id()&lt;3</t>
-  </si>
-  <si>
     <t>Por favor verifica a data introduzida</t>
   </si>
   <si>
     <t>calculates.no_dateAQ()</t>
+  </si>
+  <si>
+    <t>naosabe</t>
+  </si>
+  <si>
+    <t>calculates.naosabe() &amp;&amp; calculates.visita_id()&lt;3</t>
+  </si>
+  <si>
+    <t>!adate.hasUncertainty(data('date_AQ')) || !data('date_AQ')</t>
   </si>
 </sst>
 </file>
@@ -1565,13 +1571,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1764,162 +1770,155 @@
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,10 +1929,10 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1944,10 +1943,10 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1958,52 +1957,52 @@
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2011,152 +2010,157 @@
         <v>9</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G38" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="D42" s="2"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>139</v>
-      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
+      <c r="B46" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -2165,298 +2169,296 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48"/>
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="A50"/>
+      <c r="B50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G53" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="J52" s="2">
+      <c r="H53" s="15"/>
+      <c r="J53" s="2">
         <v>2020</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K53" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15" t="s">
+      <c r="E55" s="15"/>
+      <c r="F55" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G55" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="N55" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="N54" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H57" s="15"/>
-      <c r="L57" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="L58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F59" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G59" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="D64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E66" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F66" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G66" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B68" s="15"/>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="C68" s="15"/>
-      <c r="D68" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E70" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -2465,183 +2467,191 @@
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+    <row r="72" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="D73" s="2"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-    </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="2" t="s">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="D79" s="2"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="15" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="D82" s="2" t="s">
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="D84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+    <row r="86" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="D88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3854,9 +3864,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3954,12 +3964,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>266</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A3AF17-2165-42D3-9131-77101F33E039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF37AB2-AB01-4BF3-B18E-FF79D24BAFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1800" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="273">
   <si>
     <t>type</t>
   </si>
@@ -479,20 +479,12 @@
     <t>id_estudo=?</t>
   </si>
   <si>
-    <t>Estás a fazer o seguimento de {{data.nome}}, ID de estudo: {{data.id_estudo}} 
-Filho de {{data.nome_mae}} e de {{data.nome_pai}}
-que foi consulta no {{data.cs}}</t>
-  </si>
-  <si>
     <t>A criança está presente e os pais e a criança aceitaram a tomar o medicamento?</t>
   </si>
   <si>
     <t>goto ausente</t>
   </si>
   <si>
-    <t>Preencher só se se fez gota espessa e esfregaço devido ao estado clínico ou a pedido do médico</t>
-  </si>
-  <si>
     <t>ausente</t>
   </si>
   <si>
@@ -520,9 +512,6 @@
     <t>Especifica a razão da recisa ou "OUTRO"</t>
   </si>
   <si>
-    <t>Foi coletada amostra de sangue para a lâmina?</t>
-  </si>
-  <si>
     <t>Lista de outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
   </si>
   <si>
@@ -536,9 +525,6 @@
   </si>
   <si>
     <t>cabezado</t>
-  </si>
-  <si>
-    <t>idestudo</t>
   </si>
   <si>
     <t>erro</t>
@@ -720,9 +706,6 @@
     <t>display.adate.toYear</t>
   </si>
   <si>
-    <t>(calculates.idade_mes()&lt;12)?(data('dose_AQ')=='1'):(data('dose_AQ')=='2')</t>
-  </si>
-  <si>
     <t>A dose selecionada nao corresponde com a do idade da crianca</t>
   </si>
   <si>
@@ -750,12 +733,6 @@
     <t>!selected(data('acompanhante'), '1') &amp;&amp; !selected(data('acompanhante'), '2')</t>
   </si>
   <si>
-    <t>label_codigo</t>
-  </si>
-  <si>
-    <t>data('cs')=='bafata'?'BA':data('cs')=='bambadinca'?'KN':data('cs')=='cosse'?'CS':data('cs')=='gabu'?'GU':data('cs')=='mafanco'?'MF':data('cs')=='pitche'?'PT':''</t>
-  </si>
-  <si>
     <t>id_lamina</t>
   </si>
   <si>
@@ -862,6 +839,29 @@
   </si>
   <si>
     <t>!adate.hasUncertainty(data('date_AQ')) || !data('date_AQ')</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>codigo_lamina</t>
+  </si>
+  <si>
+    <t>id_visita</t>
+  </si>
+  <si>
+    <t>dn_idade_display_longo</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
+  </si>
+  <si>
+    <t>Estás a fazer o seguimento de {{data.nome}}, {{calculates.dn_idade_display_longo}} ID de estudo: {{data.id_estudo}} 
+Filho de {{data.nome_mae}} e de {{data.nome_pai}}
+que foi consulta no {{data.cs}}</t>
+  </si>
+  <si>
+    <t>!calculates.visita()&lt;3 ||(calculates.idade_mes()&lt;12)?(data('dose_AQ')=='1'):(data('dose_AQ')=='2')</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,13 +1571,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1630,10 +1630,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1694,10 +1694,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
@@ -1705,10 +1705,10 @@
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -1726,13 +1726,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -1750,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1785,18 +1785,18 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
@@ -1817,7 +1817,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>132</v>
@@ -1828,7 +1828,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
@@ -1838,10 +1838,10 @@
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>99</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>100</v>
@@ -1915,7 +1915,7 @@
         <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>102</v>
@@ -1929,7 +1929,7 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>103</v>
@@ -1943,7 +1943,7 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>104</v>
@@ -1957,7 +1957,7 @@
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>105</v>
@@ -1971,7 +1971,7 @@
         <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>106</v>
@@ -1999,7 +1999,7 @@
         <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>110</v>
@@ -2013,7 +2013,7 @@
         <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>108</v>
@@ -2027,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>109</v>
@@ -2041,7 +2041,7 @@
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>111</v>
@@ -2052,7 +2052,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>113</v>
@@ -2113,7 +2113,7 @@
         <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>139</v>
@@ -2193,10 +2193,10 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>129</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>123</v>
@@ -2253,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -2269,14 +2269,14 @@
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H55" s="15"/>
       <c r="N55" s="15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>125</v>
@@ -2315,17 +2315,17 @@
         <v>130</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>126</v>
       </c>
       <c r="H58" s="15"/>
       <c r="L58" s="2" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>42</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>127</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D60" s="2"/>
       <c r="F60" s="2"/>
@@ -2360,7 +2360,7 @@
         <v>124</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>131</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D62" s="2"/>
       <c r="F62" s="2"/>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D65" s="2"/>
       <c r="F65" s="2"/>
@@ -2397,7 +2397,7 @@
         <v>42</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>136</v>
@@ -2409,7 +2409,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -2436,10 +2436,10 @@
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H69" s="15"/>
     </row>
@@ -2490,10 +2490,10 @@
         <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -2501,10 +2501,10 @@
         <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -2521,10 +2521,10 @@
         <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -2543,24 +2543,24 @@
         <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D81" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>47</v>
       </c>
@@ -2571,88 +2571,114 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="D83" s="2" t="s">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P90" t="s">
+        <v>231</v>
+      </c>
+      <c r="W90" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P91" t="s">
+        <v>215</v>
+      </c>
+      <c r="W91" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W92" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W93" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W94" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3240,57 +3266,57 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,35 +3325,35 @@
     </row>
     <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3758,10 +3784,10 @@
         <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>135</v>
@@ -3784,10 +3810,10 @@
         <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
         <v>135</v>
@@ -3864,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3886,98 +3912,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" t="s">
-        <v>254</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3988,10 +4014,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4013,7 +4039,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +4063,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,23 +4079,23 @@
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +4103,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4093,7 +4119,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4101,7 +4127,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4135,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,31 +4143,31 @@
         <v>56</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,31 +4175,31 @@
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +4215,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,7 +4223,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4213,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,7 +4247,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4229,7 +4255,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4237,7 +4263,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4245,63 +4271,63 @@
         <v>9</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B37" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>186</v>
+      <c r="B39" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,39 +4335,39 @@
         <v>9</v>
       </c>
       <c r="B43" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>196</v>
+      <c r="B47" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,15 +4375,15 @@
         <v>9</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,28 +4391,28 @@
         <v>4</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>258</v>
@@ -4394,10 +4420,18 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF37AB2-AB01-4BF3-B18E-FF79D24BAFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEA6531-63D6-436A-8C36-76F09FCCA737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1800" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="273">
   <si>
     <t>type</t>
   </si>
@@ -476,9 +476,6 @@
     <t>150mg Amodiaquina</t>
   </si>
   <si>
-    <t>id_estudo=?</t>
-  </si>
-  <si>
     <t>A criança está presente e os pais e a criança aceitaram a tomar o medicamento?</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>cabezado</t>
   </si>
   <si>
-    <t>erro</t>
-  </si>
-  <si>
     <t>presenca</t>
   </si>
   <si>
@@ -639,12 +633,6 @@
   </si>
   <si>
     <t>ending</t>
-  </si>
-  <si>
-    <t>[data('id_estudo')]</t>
-  </si>
-  <si>
-    <t>{id_estudo: data('id_estudo')}</t>
   </si>
   <si>
     <t>visita_id</t>
@@ -712,9 +700,6 @@
     <t>date_rastreio</t>
   </si>
   <si>
-    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo'), date_rastreio:data('date_rastreio')}</t>
-  </si>
-  <si>
     <t>date_rastreio_display</t>
   </si>
   <si>
@@ -861,7 +846,22 @@
 que foi consulta no {{data.cs}}</t>
   </si>
   <si>
-    <t>!calculates.visita()&lt;3 ||(calculates.idade_mes()&lt;12)?(data('dose_AQ')=='1'):(data('dose_AQ')=='2')</t>
+    <t>_id=?</t>
+  </si>
+  <si>
+    <t>[data('_id')]</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), visitaformID: data('_id')}</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo'), date_rastreio:data('date_rastreio'), visitaformID: data('_id')}</t>
+  </si>
+  <si>
+    <t>preciso</t>
+  </si>
+  <si>
+    <t>!calculates.preciso() ? true : calculates.idade_mes()&lt;12 ? data('dose_AQ')=='1' : data('dose_AQ')=='2'</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,10 +1574,10 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83:XFD83"/>
+      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1630,10 +1630,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1694,10 +1694,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
@@ -1705,10 +1705,10 @@
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -1726,13 +1726,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -1750,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1785,18 +1785,18 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
@@ -1817,7 +1817,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>132</v>
@@ -1828,7 +1828,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
@@ -1838,10 +1838,10 @@
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>99</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>100</v>
@@ -1915,7 +1915,7 @@
         <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>102</v>
@@ -1929,7 +1929,7 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>103</v>
@@ -1943,7 +1943,7 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>104</v>
@@ -1957,7 +1957,7 @@
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>105</v>
@@ -1971,7 +1971,7 @@
         <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>106</v>
@@ -1999,7 +1999,7 @@
         <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>110</v>
@@ -2013,7 +2013,7 @@
         <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>108</v>
@@ -2027,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>109</v>
@@ -2041,7 +2041,7 @@
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>111</v>
@@ -2052,7 +2052,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>113</v>
@@ -2113,7 +2113,7 @@
         <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>139</v>
@@ -2193,10 +2193,10 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>129</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>123</v>
@@ -2253,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -2269,14 +2269,14 @@
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H55" s="15"/>
       <c r="N55" s="15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>125</v>
@@ -2315,7 +2315,7 @@
         <v>130</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>126</v>
@@ -2325,7 +2325,7 @@
         <v>272</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>42</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>127</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D60" s="2"/>
       <c r="F60" s="2"/>
@@ -2360,7 +2360,7 @@
         <v>124</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>131</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D62" s="2"/>
       <c r="F62" s="2"/>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D65" s="2"/>
       <c r="F65" s="2"/>
@@ -2397,7 +2397,7 @@
         <v>42</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>136</v>
@@ -2409,7 +2409,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -2436,10 +2436,10 @@
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H69" s="15"/>
     </row>
@@ -2490,10 +2490,10 @@
         <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -2501,10 +2501,10 @@
         <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -2521,10 +2521,10 @@
         <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -2543,21 +2543,21 @@
         <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D81" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -2573,26 +2573,26 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D85" s="2"/>
       <c r="F85" s="2"/>
@@ -2610,10 +2610,10 @@
         <v>4</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -2625,20 +2625,20 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D90" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="W90" s="2" t="b">
         <v>1</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D91" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="W91" s="2" t="b">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3266,57 +3266,57 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3325,35 +3325,35 @@
     </row>
     <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3781,13 +3781,13 @@
         <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>135</v>
@@ -3807,13 +3807,13 @@
         <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
         <v>135</v>
@@ -3893,7 +3893,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3912,98 +3912,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4014,10 +4022,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4039,7 +4047,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4071,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,23 +4087,23 @@
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +4111,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4127,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,20 +4135,20 @@
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>161</v>
@@ -4148,18 +4156,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,23 +4183,23 @@
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +4215,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4215,7 +4223,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4231,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,199 +4247,143 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>175</v>
+      <c r="A32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>176</v>
+      <c r="B33" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>177</v>
+      <c r="A34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>178</v>
+      <c r="A35" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>56</v>
+      <c r="A38" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>184</v>
+      <c r="A40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>185</v>
+      <c r="A41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>192</v>
+      <c r="B46" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>193</v>
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>194</v>
+      <c r="A48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>268</v>
+      <c r="A49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DC0B4-E415-4DD4-B4B9-D94E96DD61AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F06447-081D-45F8-BFDB-33FA3775B247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41160" yWindow="-2985" windowWidth="20760" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="283">
   <si>
     <t>type</t>
   </si>
@@ -410,9 +410,6 @@
     <t>end if // medi_previo</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
   </si>
   <si>
     <t>doseSP</t>
-  </si>
-  <si>
-    <t>Amodiaquina</t>
   </si>
   <si>
     <t>doseAQ</t>
@@ -688,9 +682,6 @@
     <t>(data('DOB_ou_idade')=='1')?adate.ageInMonths(data('dn')):(12*data('ano')+data('mes'))</t>
   </si>
   <si>
-    <t>Formulário de seguimento de caso do dia {{calculates.visita_id}}</t>
-  </si>
-  <si>
     <t>display.adate.fromYear</t>
   </si>
   <si>
@@ -775,18 +766,12 @@
     <t>dia_programado</t>
   </si>
   <si>
-    <t>!calculates.dia_programado()</t>
-  </si>
-  <si>
     <t>outro_dia</t>
   </si>
   <si>
     <t>tipo_visita</t>
   </si>
   <si>
-    <t>Qual é o motivo de visitar a crianca no dia {{calculates.visita_id}}</t>
-  </si>
-  <si>
     <t>Formulario de seguimento de outro dia, nos Centros de saude</t>
   </si>
   <si>
@@ -796,25 +781,10 @@
     <t>outra razao</t>
   </si>
   <si>
-    <t>data('tipo_visita')=='3'</t>
-  </si>
-  <si>
-    <t>Especifica a outra razao de visita no dia {{calculatess.visita_id}}</t>
-  </si>
-  <si>
     <t>esp_tipovisita</t>
   </si>
   <si>
     <t>no_dateAQ</t>
-  </si>
-  <si>
-    <t>erro_dateAQ</t>
-  </si>
-  <si>
-    <t>Por favor verifica a data introduzida</t>
-  </si>
-  <si>
-    <t>calculates.no_dateAQ()</t>
   </si>
   <si>
     <t>naosabe</t>
@@ -889,6 +859,40 @@
   </si>
   <si>
     <t>data_fomulario</t>
+  </si>
+  <si>
+    <t>""+ data('id_estudo') + "D" + calculates.visita_id()</t>
+  </si>
+  <si>
+    <t>iniciais</t>
+  </si>
+  <si>
+    <t>dia_alterado</t>
+  </si>
+  <si>
+    <t>(calculates.visita_id()=='6' || calculates.visita_id()=='8') ? 7 : (calculates.visita_id()=='13' || calculates.visita_id()=='15') ? 14 :(calculates.visita_id()=='20' || calculates.visita_id()=='22') ? 21 : (calculates.visita_id()=='27' || calculates.visita_id()=='29') ? 28 : calculates.visita_id()</t>
+  </si>
+  <si>
+    <t>(calculates.dia_programado() == calculates.visita_id()) ? calculates.visita_id() : calculates.dia_alterado()</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso do dia {{calculates.dia_corregido}}</t>
+  </si>
+  <si>
+    <t>dia_corregido</t>
+  </si>
+  <si>
+    <t>date_form_display</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.date_form())</t>
+  </si>
+  <si>
+    <t>Amodiaquina
+Data: {{calculates.date_form_display}}</t>
+  </si>
+  <si>
+    <t>data('cs')=='bafata' ? "BA" : data('cs')=='bambadinca' ? "KN" : data('cs')=='cosse' ? "CS" :data('cs')=='gabu' ? "GU" :data('cs')=='mafanco' ? "MF" :data('cs')=='pitche' ? "PT" : ""</t>
   </si>
 </sst>
 </file>
@@ -1535,14 +1539,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1553,15 +1557,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1569,20 +1573,20 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1598,16 +1602,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F92" activeCellId="1" sqref="D92 F92"/>
+      <selection pane="bottomRight" activeCell="D84" activeCellId="1" sqref="F84:F85 D84:D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1628,7 +1632,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1657,10 +1661,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1705,749 +1709,738 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>48</v>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A16"/>
       <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17"/>
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18"/>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>101</v>
+      <c r="E28" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>101</v>
+      <c r="E29" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A34"/>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A35"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>176</v>
+      <c r="F35" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A36"/>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>114</v>
-      </c>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A43"/>
+      <c r="D43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A44"/>
+      <c r="B44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
-        <v>47</v>
-      </c>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B46" s="15"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="D46" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="W46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="F47" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="D49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50" s="2" t="s">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="2:13" ht="110.25" x14ac:dyDescent="0.5">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="L50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" s="15" t="s">
+      <c r="C52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="D53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="J53" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K53" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="N55" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H58" s="15"/>
-      <c r="L58" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>127</v>
-      </c>
+    </row>
+    <row r="59" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B59" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B60" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B63" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B64" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="D65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
-        <v>46</v>
-      </c>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -2455,263 +2448,203 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B74" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D77" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D78" s="2" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B79" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="2" t="s">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A81" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D82" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="P82" t="s">
+        <v>266</v>
+      </c>
+      <c r="W82" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D83" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P83" t="s">
+        <v>210</v>
+      </c>
+      <c r="W83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D84" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F84" t="s">
+        <v>274</v>
+      </c>
+      <c r="P84" t="s">
+        <v>275</v>
+      </c>
+      <c r="W84" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D85" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F85" t="s">
+        <v>278</v>
+      </c>
+      <c r="P85" t="s">
+        <v>276</v>
+      </c>
+      <c r="W85" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D86" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P86" t="s">
+        <v>224</v>
+      </c>
+      <c r="W86" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D90" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="P90" t="s">
-        <v>227</v>
-      </c>
-      <c r="W90" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D91" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="P91" t="s">
-        <v>212</v>
-      </c>
-      <c r="W91" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D92" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="P92" t="s">
-        <v>276</v>
-      </c>
-      <c r="W92" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2668,7 @@
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2743,7 +2676,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2757,7 +2690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2779,7 +2712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2790,7 +2723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -2801,11 +2734,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,7 +2749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2827,15 +2760,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2846,7 +2779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2857,10 +2790,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2874,7 +2807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2888,7 +2821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2902,7 +2835,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2916,7 +2849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,7 +2863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2944,14 +2877,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2962,7 +2895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -2973,7 +2906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2984,15 +2917,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -3003,7 +2936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -3014,7 +2947,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -3025,17 +2958,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -3046,7 +2979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -3057,7 +2990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3068,14 +3001,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -3086,7 +3019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -3097,7 +3030,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -3108,7 +3041,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -3119,15 +3052,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3138,7 +3071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +3082,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
@@ -3160,10 +3093,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -3174,7 +3107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -3185,7 +3118,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -3196,13 +3129,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -3213,7 +3146,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3224,7 +3157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -3235,498 +3168,498 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A72" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -3751,7 +3684,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3765,7 +3698,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -3800,56 +3733,56 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3867,14 +3800,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -3888,7 +3821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3902,7 +3835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3923,19 +3856,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3943,132 +3876,164 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" t="s">
         <v>228</v>
       </c>
-      <c r="B9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" t="s">
-        <v>278</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4079,19 +4044,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4099,15 +4064,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +4080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -4123,15 +4088,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -4139,39 +4104,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -4179,276 +4144,292 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F06447-081D-45F8-BFDB-33FA3775B247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CEFEF4-07FA-4EE8-9A47-93D5FC9242DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="284">
   <si>
     <t>type</t>
   </si>
@@ -876,9 +876,6 @@
     <t>(calculates.dia_programado() == calculates.visita_id()) ? calculates.visita_id() : calculates.dia_alterado()</t>
   </si>
   <si>
-    <t>Formulário de seguimento de caso do dia {{calculates.dia_corregido}}</t>
-  </si>
-  <si>
     <t>dia_corregido</t>
   </si>
   <si>
@@ -893,6 +890,12 @@
   </si>
   <si>
     <t>data('cs')=='bafata' ? "BA" : data('cs')=='bambadinca' ? "KN" : data('cs')=='cosse' ? "CS" :data('cs')=='gabu' ? "GU" :data('cs')=='mafanco' ? "MF" :data('cs')=='pitche' ? "PT" : ""</t>
+  </si>
+  <si>
+    <t>DoseAdjustedDay</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso do dia {{calculates.dia_corregido}} (dose adjusted:{{data.DoseAdjustedDay}})</t>
   </si>
 </sst>
 </file>
@@ -1539,14 +1542,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1604,14 +1607,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" activeCellId="1" sqref="F84:F85 D84:D85"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1632,7 +1635,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1709,18 +1712,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1728,10 +1731,10 @@
         <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1742,14 +1745,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>145</v>
       </c>
@@ -1774,14 +1777,14 @@
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1805,7 +1808,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
@@ -1816,28 +1819,28 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="D16" s="2" t="s">
         <v>83</v>
@@ -1849,7 +1852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -1864,7 +1867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -1872,14 +1875,14 @@
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1949,21 +1952,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>112</v>
       </c>
@@ -2029,7 +2032,7 @@
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
@@ -2044,7 +2047,7 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>114</v>
       </c>
@@ -2056,7 +2059,7 @@
       <c r="H33" s="15"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="2" t="s">
         <v>47</v>
@@ -2064,7 +2067,7 @@
       <c r="D34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2079,7 +2082,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="2" t="s">
         <v>45</v>
@@ -2090,7 +2093,7 @@
       <c r="D36" s="2"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>46</v>
       </c>
@@ -2101,7 +2104,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2116,7 +2119,7 @@
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
@@ -2129,7 +2132,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
@@ -2140,7 +2143,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -2149,7 +2152,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>48</v>
@@ -2157,12 +2160,12 @@
       <c r="D42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" s="2" t="s">
         <v>205</v>
@@ -2173,7 +2176,7 @@
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2187,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="2" t="s">
@@ -2203,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
@@ -2214,15 +2217,15 @@
         <v>180</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
@@ -2237,7 +2240,7 @@
       </c>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="2:13" ht="110.25" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:13" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
@@ -2260,7 +2263,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
@@ -2277,7 +2280,7 @@
       </c>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>207</v>
       </c>
@@ -2287,7 +2290,7 @@
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
         <v>123</v>
       </c>
@@ -2298,28 +2301,28 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
@@ -2336,7 +2339,7 @@
       </c>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>121</v>
       </c>
@@ -2349,7 +2352,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
         <v>46</v>
       </c>
@@ -2360,7 +2363,7 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15" t="s">
@@ -2375,7 +2378,7 @@
       </c>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15" t="s">
@@ -2388,7 +2391,7 @@
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>47</v>
       </c>
@@ -2399,7 +2402,7 @@
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>122</v>
       </c>
@@ -2410,14 +2413,14 @@
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D66" s="2" t="s">
         <v>56</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
         <v>56</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -2448,7 +2451,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D69" s="2" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D70" s="2" t="s">
         <v>56</v>
       </c>
@@ -2470,11 +2473,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D73" s="2" t="s">
         <v>236</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
         <v>47</v>
       </c>
@@ -2510,14 +2513,14 @@
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>146</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>45</v>
       </c>
@@ -2544,7 +2547,7 @@
       <c r="D77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D78" s="2" t="s">
         <v>4</v>
       </c>
@@ -2555,21 +2558,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D82" s="6" t="s">
         <v>251</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D83" s="2" t="s">
         <v>251</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D84" s="6" t="s">
         <v>251</v>
       </c>
@@ -2611,12 +2614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D85" s="6" t="s">
         <v>251</v>
       </c>
       <c r="F85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P85" t="s">
         <v>276</v>
@@ -2625,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D86" s="2" t="s">
         <v>251</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D89" s="2" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2671,7 @@
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2676,7 +2679,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -2734,11 +2737,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2760,15 +2763,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2790,10 +2793,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2877,14 +2880,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2917,15 +2920,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -2958,17 +2961,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3001,14 +3004,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -3052,15 +3055,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
@@ -3093,10 +3096,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -3129,13 +3132,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -3168,13 +3171,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -3196,13 +3199,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>128</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -3224,13 +3227,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>152</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>152</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>152</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>152</v>
       </c>
@@ -3285,11 +3288,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>241</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>241</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>241</v>
       </c>
@@ -3322,344 +3325,344 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -3684,7 +3687,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3698,7 +3701,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>131</v>
       </c>
@@ -3800,14 +3803,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3858,17 +3861,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -3884,15 +3887,15 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" t="s">
         <v>279</v>
       </c>
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>197</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>257</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -3924,15 +3927,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>211</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>217</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>264</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>247</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>269</v>
       </c>
@@ -4028,12 +4031,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4044,19 +4047,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B52"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>157</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>157</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>157</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>83</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>123</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>9</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>123</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>9</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>9</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>4</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>4</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>236</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>251</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>251</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>251</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>251</v>
       </c>
@@ -4424,12 +4427,20 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CEFEF4-07FA-4EE8-9A47-93D5FC9242DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7755DAE-DE47-4FA8-A6D3-12BB5A77386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1607,11 +1607,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4049,8 +4049,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>282</v>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7755DAE-DE47-4FA8-A6D3-12BB5A77386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5276379D-F82D-48A7-B190-7A66E44E416A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="16440" windowHeight="4875" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="366">
   <si>
     <t>type</t>
   </si>
@@ -254,12 +255,6 @@
     <t>Bambadinca</t>
   </si>
   <si>
-    <t>Cossé</t>
-  </si>
-  <si>
-    <t>Mafanco</t>
-  </si>
-  <si>
     <t>Pitche</t>
   </si>
   <si>
@@ -269,15 +264,9 @@
     <t>bambadinca</t>
   </si>
   <si>
-    <t>mafanco</t>
-  </si>
-  <si>
     <t>pitche</t>
   </si>
   <si>
-    <t>cosse</t>
-  </si>
-  <si>
     <t>DOB_ou_idade</t>
   </si>
   <si>
@@ -404,12 +393,6 @@
     <t>quantidade</t>
   </si>
   <si>
-    <t>if // medi_previo</t>
-  </si>
-  <si>
-    <t>end if // medi_previo</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -482,9 +465,6 @@
     <t>ausente</t>
   </si>
   <si>
-    <t>a Criança na se encontra em casa</t>
-  </si>
-  <si>
     <t>A família está de viagem</t>
   </si>
   <si>
@@ -503,9 +483,6 @@
     <t>Qual é a razão de não ver a criança?</t>
   </si>
   <si>
-    <t>Especifica a razão da recisa ou "OUTRO"</t>
-  </si>
-  <si>
     <t>Lista de outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
   </si>
   <si>
@@ -603,9 +580,6 @@
   </si>
   <si>
     <t>outro_medicamento</t>
-  </si>
-  <si>
-    <t>data('outro_medicamento')=='1'</t>
   </si>
   <si>
     <t>outros_medicamentos</t>
@@ -730,9 +704,6 @@
     <t>data('DOB_ou_idade')=='1' ? ("DOB " + calculates.dn_display() ) : ("Tem " +data('ano')+" A e " + data('mes') + " M")</t>
   </si>
   <si>
-    <t>calculates.visita_id()&lt;3</t>
-  </si>
-  <si>
     <t>nota_id_lamina</t>
   </si>
   <si>
@@ -740,9 +711,6 @@
   </si>
   <si>
     <t>Colheu-se amostra de sangue para a lâmina?</t>
-  </si>
-  <si>
-    <t>Código: {{calculates.id_lamina}}</t>
   </si>
   <si>
     <t>nota_lab</t>
@@ -861,9 +829,6 @@
     <t>data_fomulario</t>
   </si>
   <si>
-    <t>""+ data('id_estudo') + "D" + calculates.visita_id()</t>
-  </si>
-  <si>
     <t>iniciais</t>
   </si>
   <si>
@@ -874,6 +839,9 @@
   </si>
   <si>
     <t>(calculates.dia_programado() == calculates.visita_id()) ? calculates.visita_id() : calculates.dia_alterado()</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso do dia {{calculates.dia_corregido}}</t>
   </si>
   <si>
     <t>dia_corregido</t>
@@ -895,7 +863,286 @@
     <t>DoseAdjustedDay</t>
   </si>
   <si>
-    <t>Formulário de seguimento de caso do dia {{calculates.dia_corregido}} (dose adjusted:{{data.DoseAdjustedDay}})</t>
+    <t>data('DoseAdjustedDay')=='1' || data('DoseAdjustedDay')=='2'</t>
+  </si>
+  <si>
+    <t>A criança na se encontra em casa</t>
+  </si>
+  <si>
+    <t>Especifica a razão da recusa ou "OUTRO"</t>
+  </si>
+  <si>
+    <t>(calculates.visita_id() != data('DoseAdjustedDay')) ? data('DoseAdjustedDay') : calculates.dia_alterado()</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>""+ data('id_estudo') + "D" + calculates.dia_corregido()</t>
+  </si>
+  <si>
+    <t>outros_med</t>
+  </si>
+  <si>
+    <t>if // outro_medi</t>
+  </si>
+  <si>
+    <t>data('outros_med')=='2'</t>
+  </si>
+  <si>
+    <t>goto lab</t>
+  </si>
+  <si>
+    <t>else // outro_medi</t>
+  </si>
+  <si>
+    <t>med_adm1</t>
+  </si>
+  <si>
+    <t>Nome do Medicamento</t>
+  </si>
+  <si>
+    <t>date_adm1</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>hora_adm1</t>
+  </si>
+  <si>
+    <t>dose_adm1</t>
+  </si>
+  <si>
+    <t>Nº de comprimido</t>
+  </si>
+  <si>
+    <t>vomitou_adm1</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm1')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm1</t>
+  </si>
+  <si>
+    <t>A hora que vomitou S.P?</t>
+  </si>
+  <si>
+    <t>calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>erro_data1</t>
+  </si>
+  <si>
+    <t>Não se admite falta de informação na datas e nem as datas no futuro</t>
+  </si>
+  <si>
+    <t>Por favor verifica verifica de novo a data introduzida</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>outro_med2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med2')=='2'</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>med_adm2</t>
+  </si>
+  <si>
+    <t>date_adm2</t>
+  </si>
+  <si>
+    <t>hora_adm2</t>
+  </si>
+  <si>
+    <t>dose_adm2</t>
+  </si>
+  <si>
+    <t>vomitou_adm2</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm2')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm2</t>
+  </si>
+  <si>
+    <t>calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>erro_data2</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>outro_med3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}}  e {{data.med_adm2}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med3')=='2'</t>
+  </si>
+  <si>
+    <t>med_adm3</t>
+  </si>
+  <si>
+    <t>date_adm3</t>
+  </si>
+  <si>
+    <t>hora_adm3</t>
+  </si>
+  <si>
+    <t>dose_adm3</t>
+  </si>
+  <si>
+    <t>vomitou_adm3</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm3')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm3</t>
+  </si>
+  <si>
+    <t>calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>erro_data3</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>outro_med4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} , {{data.med_adm2}}  e {{data.med_adm3}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med4')=='2'</t>
+  </si>
+  <si>
+    <t>med_adm4</t>
+  </si>
+  <si>
+    <t>date_adm4</t>
+  </si>
+  <si>
+    <t>hora_adm4</t>
+  </si>
+  <si>
+    <t>dose_adm4</t>
+  </si>
+  <si>
+    <t>vomitou_adm4</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm4')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm4</t>
+  </si>
+  <si>
+    <t>calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>erro_data4</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>end if // outro_medi</t>
+  </si>
+  <si>
+    <t>Código:{{data.id_estudo}}     |     D{{calculates.dia_corregido}}</t>
+  </si>
+  <si>
+    <t>ganmamudo</t>
+  </si>
+  <si>
+    <t>Gã-Mamudo</t>
+  </si>
+  <si>
+    <t>sonaco</t>
+  </si>
+  <si>
+    <t>Sonaco</t>
+  </si>
+  <si>
+    <t>nao_data1</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm1'))</t>
+  </si>
+  <si>
+    <t>nao_futuro1</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm1'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>calculates.nao_data1() || calculates.nao_futuro1()&lt;0</t>
+  </si>
+  <si>
+    <t>nao_data2</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm2'))</t>
+  </si>
+  <si>
+    <t>nao_futuro2</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm2'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>calculates.nao_data2() || calculates.nao_futuro2()&lt;0</t>
+  </si>
+  <si>
+    <t>nao_data3</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm3'))</t>
+  </si>
+  <si>
+    <t>nao_futuro3</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm3'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>calculates.nao_data3() || calculates.nao_futuro3()&lt;0</t>
+  </si>
+  <si>
+    <t>nao_data4</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm4'))</t>
+  </si>
+  <si>
+    <t>nao_futuro4</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm4'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>calculates.nao_data4() || calculates.nao_futuro4()&lt;0</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1223,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,6 +1245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1313,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1115,6 +1368,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1565,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,7 +1844,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1589,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1605,13 +1868,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="A154" sqref="A153:A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1664,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1723,15 +1986,15 @@
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
@@ -1739,10 +2002,10 @@
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1760,18 +2023,18 @@
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="15"/>
@@ -1792,10 +2055,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1803,7 +2066,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
@@ -1813,10 +2076,10 @@
         <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -1843,13 +2106,13 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1861,10 +2124,10 @@
         <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1887,13 +2150,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1901,13 +2164,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1915,13 +2178,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1929,13 +2192,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,13 +2206,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,13 +2234,13 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,13 +2248,13 @@
         <v>9</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2002,10 +2265,10 @@
         <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,18 +2279,18 @@
         <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
@@ -2040,16 +2303,16 @@
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -2076,10 +2339,10 @@
         <v>42</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -2088,7 +2351,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D36" s="2"/>
       <c r="F36" s="15"/>
@@ -2112,10 +2375,10 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H38" s="15"/>
     </row>
@@ -2123,10 +2386,10 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -2165,13 +2428,13 @@
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -2191,16 +2454,16 @@
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="P46" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="W46" s="2" t="b">
         <v>1</v>
@@ -2214,10 +2477,10 @@
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H47" s="15"/>
     </row>
@@ -2229,14 +2492,14 @@
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H49" s="15"/>
     </row>
@@ -2247,20 +2510,20 @@
         <v>9</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H50" s="15"/>
       <c r="L50" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -2273,37 +2536,37 @@
         <v>42</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="2"/>
@@ -2317,7 +2580,7 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="2"/>
@@ -2332,322 +2595,1086 @@
         <v>42</v>
       </c>
       <c r="F58" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="M59" s="26"/>
+    </row>
+    <row r="60" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="M60" s="26"/>
+    </row>
+    <row r="61" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="M61" s="26"/>
+    </row>
+    <row r="62" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="M62" s="26"/>
+    </row>
+    <row r="63" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="M63" s="26"/>
+    </row>
+    <row r="64" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="M64" s="26"/>
+    </row>
+    <row r="65" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="M65" s="26"/>
+    </row>
+    <row r="66" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="M66" s="26"/>
+    </row>
+    <row r="67" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="J67" s="24">
+        <v>2020</v>
+      </c>
+      <c r="K67" s="24">
+        <v>2020</v>
+      </c>
+      <c r="M67" s="26"/>
+    </row>
+    <row r="68" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="M68" s="26"/>
+    </row>
+    <row r="69" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="M69" s="26"/>
+    </row>
+    <row r="70" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="M70" s="26"/>
+    </row>
+    <row r="71" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M71" s="26"/>
+    </row>
+    <row r="72" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="M72" s="26"/>
+    </row>
+    <row r="73" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M73" s="26"/>
+    </row>
+    <row r="74" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M74" s="26"/>
+    </row>
+    <row r="75" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="26"/>
+    </row>
+    <row r="76" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="M76" s="26"/>
+    </row>
+    <row r="77" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D77" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="L77" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="M77" s="26"/>
+    </row>
+    <row r="78" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M78" s="26"/>
+    </row>
+    <row r="79" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="26"/>
+    </row>
+    <row r="80" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D80" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="M80" s="26"/>
+    </row>
+    <row r="81" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="M81" s="26"/>
+    </row>
+    <row r="82" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="M82" s="26"/>
+    </row>
+    <row r="83" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="M83" s="26"/>
+    </row>
+    <row r="84" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="J86" s="27">
+        <v>2020</v>
+      </c>
+      <c r="K86" s="27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="G96" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I96" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="L96" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="26"/>
+    </row>
+    <row r="99" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D99" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="M99" s="26"/>
+    </row>
+    <row r="100" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="M100" s="26"/>
+    </row>
+    <row r="101" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="M101" s="26"/>
+    </row>
+    <row r="102" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="M102" s="26"/>
+    </row>
+    <row r="103" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="26"/>
+    </row>
+    <row r="104" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="26"/>
+    </row>
+    <row r="105" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="G107" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="J107" s="27">
+        <v>2020</v>
+      </c>
+      <c r="K107" s="27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="G112" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G117" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I117" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="L117" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:13" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D120" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="M120" s="26"/>
+    </row>
+    <row r="121" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="M121" s="26"/>
+    </row>
+    <row r="122" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="M122" s="26"/>
+    </row>
+    <row r="123" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="M123" s="26"/>
+    </row>
+    <row r="124" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D128" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="G128" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="J128" s="27">
+        <v>2020</v>
+      </c>
+      <c r="K128" s="27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G129" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="G131" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="G133" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I138" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="L138" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="26"/>
+    </row>
+    <row r="141" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="M141" s="26"/>
+    </row>
+    <row r="142" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="M142" s="26"/>
+    </row>
+    <row r="143" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="M143" s="26"/>
+    </row>
+    <row r="144" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="M144" s="26"/>
+    </row>
+    <row r="145" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B145" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="M145" s="26"/>
+    </row>
+    <row r="146" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="M146" s="26"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D153" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D154" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D157" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G58" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D70" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="D165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D166" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="P166" t="s">
+        <v>255</v>
+      </c>
+      <c r="W166" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D167" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P167" t="s">
+        <v>201</v>
+      </c>
+      <c r="W167" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D168" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F168" t="s">
         <v>262</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="P168" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D78" s="2" t="s">
+      <c r="W168" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D169" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F169" t="s">
+        <v>266</v>
+      </c>
+      <c r="P169" t="s">
+        <v>264</v>
+      </c>
+      <c r="W169" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D170" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P170" t="s">
+        <v>215</v>
+      </c>
+      <c r="W170" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D82" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="P82" t="s">
-        <v>266</v>
-      </c>
-      <c r="W82" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D83" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="P83" t="s">
-        <v>210</v>
-      </c>
-      <c r="W83" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D84" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F84" t="s">
-        <v>274</v>
-      </c>
-      <c r="P84" t="s">
-        <v>275</v>
-      </c>
-      <c r="W84" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D85" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F85" t="s">
-        <v>277</v>
-      </c>
-      <c r="P85" t="s">
+      <c r="F173" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="W85" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D86" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="P86" t="s">
-        <v>224</v>
-      </c>
-      <c r="W86" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2667,8 +3694,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2717,7 +3744,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2728,7 +3755,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2798,7 +3825,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>67</v>
@@ -2812,10 +3839,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>70</v>
@@ -2826,13 +3853,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -2840,7 +3867,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>68</v>
@@ -2854,13 +3881,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
@@ -2868,13 +3895,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
@@ -2889,35 +3916,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,35 +3957,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,35 +4000,35 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3013,46 +4040,46 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,7 +4092,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3076,24 +4103,24 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3101,7 +4128,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -3112,24 +4139,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,35 +4167,35 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,24 +4206,24 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,24 +4234,24 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,57 +4262,57 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,35 +4321,35 @@
     </row>
     <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,54 +4765,54 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3859,10 +4886,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A25" sqref="A25:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3881,162 +4908,258 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" t="s">
-        <v>220</v>
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" t="s">
         <v>254</v>
-      </c>
-      <c r="B17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" t="s">
-        <v>268</v>
+        <v>236</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4049,8 +5172,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4072,7 +5195,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,7 +5211,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4096,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +5227,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,23 +5235,23 @@
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4136,7 +5259,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,7 +5275,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4160,15 +5283,15 @@
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +5299,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,15 +5307,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +5323,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4208,7 +5331,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4216,7 +5339,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4224,7 +5347,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +5355,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4256,7 +5379,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +5387,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +5395,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +5411,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4296,15 +5419,15 @@
         <v>57</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4312,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,15 +5443,15 @@
         <v>9</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,7 +5459,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +5467,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,7 +5475,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4360,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,15 +5491,15 @@
         <v>4</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,7 +5507,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,55 +5515,55 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5276379D-F82D-48A7-B190-7A66E44E416A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22673EA9-832B-4481-8E10-A269B9BA175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16440" windowHeight="4875" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="376">
   <si>
     <t>type</t>
   </si>
@@ -1143,6 +1143,36 @@
   </si>
   <si>
     <t>lab</t>
+  </si>
+  <si>
+    <t>clicando no botao "Create new instance" ou "Criar nova instancia"</t>
+  </si>
+  <si>
+    <t>se não for tomada coloca 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('temperatura')==888 || (data('temperatura')&gt;=34  &amp;&amp; data('temperatura')&lt;=43) </t>
+  </si>
+  <si>
+    <t>yesnodk</t>
+  </si>
+  <si>
+    <t>data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>data('presenca')=='1'</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1832,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2020061301</v>
+        <v>2020071900</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1871,10 +1901,10 @@
   <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A154" sqref="A153:A154"/>
+      <selection pane="bottomRight" activeCell="M164" sqref="M164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2028,6 +2058,9 @@
       <c r="G7" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="N7" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -2060,6 +2093,9 @@
       <c r="G10" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="N10" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -2103,7 +2139,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="D16" s="2" t="s">
         <v>79</v>
@@ -2114,14 +2150,20 @@
       <c r="G16" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>158</v>
@@ -2129,8 +2171,11 @@
       <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N17" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -2138,14 +2183,14 @@
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2158,8 +2203,11 @@
       <c r="G20" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N20" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2172,8 +2220,11 @@
       <c r="G21" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2186,8 +2237,11 @@
       <c r="G22" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2200,8 +2254,11 @@
       <c r="G23" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N23" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2214,22 +2271,25 @@
       <c r="G24" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N24" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2242,8 +2302,11 @@
       <c r="G27" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N27" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2256,8 +2319,11 @@
       <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N28" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2270,8 +2336,11 @@
       <c r="G29" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N29" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2284,8 +2353,11 @@
       <c r="G30" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N30" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
@@ -2295,7 +2367,7 @@
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
@@ -2309,6 +2381,9 @@
         <v>109</v>
       </c>
       <c r="H32" s="15"/>
+      <c r="N32" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -2344,6 +2419,9 @@
       <c r="G35" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="N35" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36"/>
@@ -2367,7 +2445,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2381,6 +2459,9 @@
         <v>131</v>
       </c>
       <c r="H38" s="15"/>
+      <c r="I38" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
@@ -2488,7 +2569,7 @@
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
@@ -2502,8 +2583,11 @@
         <v>118</v>
       </c>
       <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="2:13" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="N49" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
@@ -2526,7 +2610,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
@@ -2542,8 +2626,11 @@
         <v>120</v>
       </c>
       <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>198</v>
       </c>
@@ -2553,7 +2640,7 @@
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
         <v>117</v>
       </c>
@@ -2563,29 +2650,32 @@
       <c r="G53" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N53" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
@@ -2601,8 +2691,11 @@
         <v>128</v>
       </c>
       <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N58" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="25" t="s">
         <v>279</v>
       </c>
@@ -2616,7 +2709,7 @@
       <c r="H59" s="25"/>
       <c r="M59" s="26"/>
     </row>
-    <row r="60" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
         <v>281</v>
       </c>
@@ -2628,7 +2721,7 @@
       <c r="H60" s="25"/>
       <c r="M60" s="26"/>
     </row>
-    <row r="61" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -2638,7 +2731,7 @@
       <c r="H61" s="25"/>
       <c r="M61" s="26"/>
     </row>
-    <row r="62" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
         <v>282</v>
       </c>
@@ -2650,7 +2743,7 @@
       <c r="H62" s="25"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -2660,7 +2753,7 @@
       <c r="H63" s="25"/>
       <c r="M63" s="26"/>
     </row>
-    <row r="64" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="25" t="s">
         <v>46</v>
       </c>
@@ -2672,7 +2765,7 @@
       <c r="H64" s="25"/>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25" t="s">
@@ -2688,7 +2781,7 @@
       <c r="H65" s="25"/>
       <c r="M65" s="26"/>
     </row>
-    <row r="66" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25" t="s">
@@ -2703,8 +2796,11 @@
       </c>
       <c r="H66" s="25"/>
       <c r="M66" s="26"/>
-    </row>
-    <row r="67" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N66" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25" t="s">
@@ -2725,8 +2821,11 @@
         <v>2020</v>
       </c>
       <c r="M67" s="26"/>
-    </row>
-    <row r="68" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N67" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25" t="s">
@@ -2741,8 +2840,11 @@
       </c>
       <c r="H68" s="25"/>
       <c r="M68" s="26"/>
-    </row>
-    <row r="69" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N68" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25" t="s">
@@ -2757,8 +2859,11 @@
       </c>
       <c r="H69" s="25"/>
       <c r="M69" s="26"/>
-    </row>
-    <row r="70" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N69" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25" t="s">
@@ -2775,8 +2880,11 @@
       </c>
       <c r="H70" s="25"/>
       <c r="M70" s="26"/>
-    </row>
-    <row r="71" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N70" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="24" t="s">
         <v>45</v>
       </c>
@@ -2784,8 +2892,11 @@
         <v>291</v>
       </c>
       <c r="M71" s="26"/>
-    </row>
-    <row r="72" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N71" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D72" s="24" t="s">
         <v>117</v>
       </c>
@@ -2797,22 +2908,25 @@
       </c>
       <c r="M72" s="26"/>
     </row>
-    <row r="73" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M73" s="26"/>
-    </row>
-    <row r="74" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N73" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M74" s="26"/>
     </row>
-    <row r="75" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" s="26"/>
     </row>
-    <row r="76" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="24" t="s">
         <v>45</v>
       </c>
@@ -2821,7 +2935,7 @@
       </c>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D77" s="24" t="s">
         <v>56</v>
       </c>
@@ -2839,16 +2953,16 @@
       </c>
       <c r="M77" s="26"/>
     </row>
-    <row r="78" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M78" s="26"/>
     </row>
-    <row r="79" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M79" s="26"/>
     </row>
-    <row r="80" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D80" s="24" t="s">
         <v>9</v>
       </c>
@@ -2862,8 +2976,11 @@
         <v>300</v>
       </c>
       <c r="M80" s="26"/>
-    </row>
-    <row r="81" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N80" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>45</v>
       </c>
@@ -2872,24 +2989,24 @@
       </c>
       <c r="M81" s="26"/>
     </row>
-    <row r="82" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>281</v>
       </c>
       <c r="M82" s="26"/>
     </row>
-    <row r="83" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="24" t="s">
         <v>302</v>
       </c>
       <c r="M83" s="26"/>
     </row>
-    <row r="84" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D85" s="27" t="s">
         <v>53</v>
       </c>
@@ -2899,8 +3016,11 @@
       <c r="G85" s="27" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N85" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D86" s="27" t="s">
         <v>57</v>
       </c>
@@ -2916,8 +3036,11 @@
       <c r="K86" s="27">
         <v>2020</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N86" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D87" s="27" t="s">
         <v>117</v>
       </c>
@@ -2927,8 +3050,11 @@
       <c r="G87" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N87" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D88" s="27" t="s">
         <v>4</v>
       </c>
@@ -2938,8 +3064,11 @@
       <c r="G88" s="27" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N88" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D89" s="27" t="s">
         <v>9</v>
       </c>
@@ -2952,8 +3081,11 @@
       <c r="G89" s="27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N89" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="27" t="s">
         <v>45</v>
       </c>
@@ -2961,7 +3093,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D91" s="27" t="s">
         <v>117</v>
       </c>
@@ -2971,19 +3103,22 @@
       <c r="G91" s="27" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N91" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="27" t="s">
         <v>45</v>
       </c>
@@ -2991,7 +3126,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D96" s="27" t="s">
         <v>56</v>
       </c>
@@ -3008,15 +3143,15 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M98" s="26"/>
     </row>
-    <row r="99" spans="2:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D99" s="24" t="s">
         <v>9</v>
       </c>
@@ -3030,8 +3165,11 @@
         <v>314</v>
       </c>
       <c r="M99" s="26"/>
-    </row>
-    <row r="100" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N99" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="24" t="s">
         <v>45</v>
       </c>
@@ -3040,30 +3178,30 @@
       </c>
       <c r="M100" s="26"/>
     </row>
-    <row r="101" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="24" t="s">
         <v>281</v>
       </c>
       <c r="M101" s="26"/>
     </row>
-    <row r="102" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
         <v>302</v>
       </c>
       <c r="M102" s="26"/>
     </row>
-    <row r="103" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M103" s="26"/>
     </row>
-    <row r="104" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M104" s="26"/>
     </row>
-    <row r="105" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D106" s="27" t="s">
         <v>53</v>
       </c>
@@ -3073,8 +3211,11 @@
       <c r="G106" s="27" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="107" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N106" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D107" s="27" t="s">
         <v>57</v>
       </c>
@@ -3090,8 +3231,11 @@
       <c r="K107" s="27">
         <v>2020</v>
       </c>
-    </row>
-    <row r="108" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N107" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D108" s="27" t="s">
         <v>117</v>
       </c>
@@ -3101,8 +3245,11 @@
       <c r="G108" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="109" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N108" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D109" s="27" t="s">
         <v>4</v>
       </c>
@@ -3112,8 +3259,11 @@
       <c r="G109" s="27" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="110" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N109" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D110" s="27" t="s">
         <v>9</v>
       </c>
@@ -3126,8 +3276,11 @@
       <c r="G110" s="27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N110" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="27" t="s">
         <v>45</v>
       </c>
@@ -3135,7 +3288,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D112" s="27" t="s">
         <v>117</v>
       </c>
@@ -3145,19 +3298,22 @@
       <c r="G112" s="27" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="113" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N112" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="27" t="s">
         <v>45</v>
       </c>
@@ -3165,7 +3321,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D117" s="27" t="s">
         <v>56</v>
       </c>
@@ -3182,13 +3338,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:13" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D120" s="24" t="s">
         <v>9</v>
       </c>
@@ -3202,8 +3358,11 @@
         <v>327</v>
       </c>
       <c r="M120" s="26"/>
-    </row>
-    <row r="121" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N120" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="24" t="s">
         <v>45</v>
       </c>
@@ -3212,26 +3371,26 @@
       </c>
       <c r="M121" s="26"/>
     </row>
-    <row r="122" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
         <v>281</v>
       </c>
       <c r="M122" s="26"/>
     </row>
-    <row r="123" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
         <v>302</v>
       </c>
       <c r="M123" s="26"/>
     </row>
-    <row r="124" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D127" s="27" t="s">
         <v>53</v>
       </c>
@@ -3241,8 +3400,11 @@
       <c r="G127" s="27" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="128" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N127" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D128" s="27" t="s">
         <v>57</v>
       </c>
@@ -3258,8 +3420,11 @@
       <c r="K128" s="27">
         <v>2020</v>
       </c>
-    </row>
-    <row r="129" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N128" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D129" s="27" t="s">
         <v>117</v>
       </c>
@@ -3269,8 +3434,11 @@
       <c r="G129" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="130" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N129" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D130" s="27" t="s">
         <v>4</v>
       </c>
@@ -3280,8 +3448,11 @@
       <c r="G130" s="27" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="131" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N130" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D131" s="27" t="s">
         <v>9</v>
       </c>
@@ -3294,8 +3465,11 @@
       <c r="G131" s="27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="132" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N131" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="27" t="s">
         <v>45</v>
       </c>
@@ -3303,7 +3477,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D133" s="27" t="s">
         <v>117</v>
       </c>
@@ -3313,19 +3487,22 @@
       <c r="G133" s="27" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="134" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N133" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="27" t="s">
         <v>45</v>
       </c>
@@ -3333,7 +3510,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D138" s="27" t="s">
         <v>56</v>
       </c>
@@ -3350,15 +3527,15 @@
         <v>338</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M140" s="26"/>
     </row>
-    <row r="141" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -3368,7 +3545,7 @@
       <c r="H141" s="25"/>
       <c r="M141" s="26"/>
     </row>
-    <row r="142" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="25" t="s">
         <v>48</v>
       </c>
@@ -3380,7 +3557,7 @@
       <c r="H142" s="25"/>
       <c r="M142" s="26"/>
     </row>
-    <row r="143" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="25" t="s">
         <v>48</v>
       </c>
@@ -3392,7 +3569,7 @@
       <c r="H143" s="25"/>
       <c r="M143" s="26"/>
     </row>
-    <row r="144" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="25" t="s">
         <v>48</v>
       </c>
@@ -3404,7 +3581,7 @@
       <c r="H144" s="25"/>
       <c r="M144" s="26"/>
     </row>
-    <row r="145" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="25" t="s">
         <v>339</v>
       </c>
@@ -3416,7 +3593,7 @@
       <c r="H145" s="25"/>
       <c r="M145" s="26"/>
     </row>
-    <row r="146" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
@@ -3426,25 +3603,25 @@
       <c r="H146" s="25"/>
       <c r="M146" s="26"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D150" s="2" t="s">
         <v>56</v>
       </c>
@@ -3455,7 +3632,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D151" s="2" t="s">
         <v>56</v>
       </c>
@@ -3466,7 +3643,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -3475,7 +3652,7 @@
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D153" s="2" t="s">
         <v>56</v>
       </c>
@@ -3486,7 +3663,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D154" s="2" t="s">
         <v>56</v>
       </c>
@@ -3497,11 +3674,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
@@ -3514,8 +3691,11 @@
       <c r="G156" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D157" s="2" t="s">
         <v>225</v>
       </c>
@@ -3526,7 +3706,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B158" s="15" t="s">
         <v>47</v>
       </c>
@@ -3537,14 +3717,14 @@
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>140</v>
       </c>
@@ -3559,6 +3739,9 @@
       </c>
       <c r="G160" s="2" t="s">
         <v>146</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
@@ -3571,7 +3754,7 @@
       <c r="D161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="D162" s="2" t="s">
         <v>4</v>
       </c>
@@ -3580,6 +3763,9 @@
       </c>
       <c r="G162" s="2" t="s">
         <v>274</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
@@ -3692,10 +3878,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3795,88 +3981,79 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>369</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>369</v>
+      </c>
+      <c r="B13" s="2">
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3884,13 +4061,13 @@
         <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3898,410 +4075,419 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B50" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B51" s="2">
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B53" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B54" s="2">
         <v>2</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="2">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B59" s="2">
         <v>2</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="2">
-        <v>3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="2">
-        <v>2</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="2">
-        <v>3</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B71" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,62 +4495,85 @@
         <v>145</v>
       </c>
       <c r="B72" s="2">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="B74" s="2">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>232</v>
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="2">
         <v>2</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
@@ -4372,11 +4581,9 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -4596,18 +4803,18 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
@@ -4692,6 +4899,18 @@
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="C240" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5170,10 +5389,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A53"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5566,6 +5785,222 @@
         <v>271</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22673EA9-832B-4481-8E10-A269B9BA175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D71CCB-AC92-4EA4-ACA1-68587C76AF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1901,10 +1901,10 @@
   <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M164" sqref="M164"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2074,9 +2074,6 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -2126,9 +2123,6 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -3881,7 +3875,7 @@
   <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5389,10 +5383,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5785,219 +5779,231 @@
         <v>271</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
+    </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>283</v>
+      <c r="A55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>117</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>335</v>
       </c>
     </row>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\seguimento\forms\seguimento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D71CCB-AC92-4EA4-ACA1-68587C76AF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E43C7-3A97-469C-A090-E556A6CE5FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="376">
   <si>
     <t>type</t>
   </si>
@@ -1094,9 +1094,6 @@
     <t>adate.diffInDays(data('date_adm1'),calculates.hoje())</t>
   </si>
   <si>
-    <t>calculates.nao_data1() || calculates.nao_futuro1()&lt;0</t>
-  </si>
-  <si>
     <t>nao_data2</t>
   </si>
   <si>
@@ -1109,9 +1106,6 @@
     <t>adate.diffInDays(data('date_adm2'),calculates.hoje())</t>
   </si>
   <si>
-    <t>calculates.nao_data2() || calculates.nao_futuro2()&lt;0</t>
-  </si>
-  <si>
     <t>nao_data3</t>
   </si>
   <si>
@@ -1124,9 +1118,6 @@
     <t>adate.diffInDays(data('date_adm3'),calculates.hoje())</t>
   </si>
   <si>
-    <t>calculates.nao_data3() || calculates.nao_futuro3()&lt;0</t>
-  </si>
-  <si>
     <t>nao_data4</t>
   </si>
   <si>
@@ -1139,9 +1130,6 @@
     <t>adate.diffInDays(data('date_adm4'),calculates.hoje())</t>
   </si>
   <si>
-    <t>calculates.nao_data4() || calculates.nao_futuro4()&lt;0</t>
-  </si>
-  <si>
     <t>lab</t>
   </si>
   <si>
@@ -1173,6 +1161,18 @@
   </si>
   <si>
     <t>Não sabe</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data1() || calculates.nao_futuro1()&lt;0) &amp;&amp; data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data2() || calculates.nao_futuro2()&lt;0) &amp;&amp; data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data3() || calculates.nao_futuro3()&lt;0) &amp;&amp; data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
   </si>
 </sst>
 </file>
@@ -1835,14 +1835,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>2020071900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1901,13 +1901,13 @@
   <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1928,7 +1928,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2005,18 +2005,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
@@ -2038,14 +2038,14 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>139</v>
       </c>
@@ -2073,11 +2073,11 @@
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2091,10 +2091,10 @@
         <v>124</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
@@ -2115,25 +2115,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="63" x14ac:dyDescent="0.5">
       <c r="A16"/>
       <c r="D16" s="2" t="s">
         <v>79</v>
@@ -2145,19 +2145,19 @@
         <v>95</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>158</v>
@@ -2166,10 +2166,10 @@
         <v>96</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -2177,14 +2177,14 @@
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2198,10 +2198,10 @@
         <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2215,10 +2215,10 @@
         <v>99</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2232,10 +2232,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2249,10 +2249,10 @@
         <v>101</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2266,24 +2266,24 @@
         <v>102</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2297,10 +2297,10 @@
         <v>106</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2314,15 +2314,15 @@
         <v>104</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>166</v>
@@ -2331,10 +2331,10 @@
         <v>105</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2348,10 +2348,10 @@
         <v>107</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
@@ -2379,7 +2379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B33" s="15" t="s">
         <v>110</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="H33" s="15"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A34"/>
       <c r="B34" s="2" t="s">
         <v>47</v>
@@ -2399,7 +2399,7 @@
       <c r="D34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A35"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2414,10 +2414,10 @@
         <v>130</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A36"/>
       <c r="B36" s="2" t="s">
         <v>45</v>
@@ -2428,7 +2428,7 @@
       <c r="D36" s="2"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B37" s="15" t="s">
         <v>46</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2454,10 +2454,10 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
@@ -2470,7 +2470,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -2490,7 +2490,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>48</v>
@@ -2498,12 +2498,12 @@
       <c r="D42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A43"/>
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A44"/>
       <c r="B44" s="2" t="s">
         <v>196</v>
@@ -2514,7 +2514,7 @@
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="2" t="s">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
@@ -2559,11 +2559,11 @@
       </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
@@ -2581,7 +2581,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="110.25" x14ac:dyDescent="0.5">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
@@ -2604,7 +2604,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
@@ -2624,7 +2624,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B52" s="2" t="s">
         <v>198</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D53" s="2" t="s">
         <v>117</v>
       </c>
@@ -2648,28 +2648,28 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B54" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B57" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
@@ -2686,10 +2686,10 @@
       </c>
       <c r="H58" s="15"/>
       <c r="N58" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B59" s="25" t="s">
         <v>279</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="H59" s="25"/>
       <c r="M59" s="26"/>
     </row>
-    <row r="60" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B60" s="25" t="s">
         <v>281</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="H60" s="25"/>
       <c r="M60" s="26"/>
     </row>
-    <row r="61" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -2725,7 +2725,7 @@
       <c r="H61" s="25"/>
       <c r="M61" s="26"/>
     </row>
-    <row r="62" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B62" s="25" t="s">
         <v>282</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="H62" s="25"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -2747,7 +2747,7 @@
       <c r="H63" s="25"/>
       <c r="M63" s="26"/>
     </row>
-    <row r="64" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B64" s="25" t="s">
         <v>46</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="H64" s="25"/>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25" t="s">
@@ -2775,7 +2775,7 @@
       <c r="H65" s="25"/>
       <c r="M65" s="26"/>
     </row>
-    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25" t="s">
@@ -2791,10 +2791,10 @@
       <c r="H66" s="25"/>
       <c r="M66" s="26"/>
       <c r="N66" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25" t="s">
@@ -2816,10 +2816,10 @@
       </c>
       <c r="M67" s="26"/>
       <c r="N67" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25" t="s">
@@ -2835,10 +2835,10 @@
       <c r="H68" s="25"/>
       <c r="M68" s="26"/>
       <c r="N68" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25" t="s">
@@ -2854,10 +2854,10 @@
       <c r="H69" s="25"/>
       <c r="M69" s="26"/>
       <c r="N69" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25" t="s">
@@ -2875,10 +2875,10 @@
       <c r="H70" s="25"/>
       <c r="M70" s="26"/>
       <c r="N70" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B71" s="24" t="s">
         <v>45</v>
       </c>
@@ -2887,10 +2887,10 @@
       </c>
       <c r="M71" s="26"/>
       <c r="N71" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D72" s="24" t="s">
         <v>117</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="M72" s="26"/>
     </row>
-    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B73" s="24" t="s">
         <v>48</v>
       </c>
@@ -2911,16 +2911,16 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B74" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M74" s="26"/>
     </row>
-    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M75" s="26"/>
     </row>
-    <row r="76" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B76" s="24" t="s">
         <v>45</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D77" s="24" t="s">
         <v>56</v>
       </c>
@@ -2947,16 +2947,16 @@
       </c>
       <c r="M77" s="26"/>
     </row>
-    <row r="78" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B78" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M78" s="26"/>
     </row>
-    <row r="79" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M79" s="26"/>
     </row>
-    <row r="80" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D80" s="24" t="s">
         <v>9</v>
       </c>
@@ -2971,10 +2971,10 @@
       </c>
       <c r="M80" s="26"/>
       <c r="N80" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B81" s="24" t="s">
         <v>45</v>
       </c>
@@ -2983,24 +2983,24 @@
       </c>
       <c r="M81" s="26"/>
     </row>
-    <row r="82" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B82" s="24" t="s">
         <v>281</v>
       </c>
       <c r="M82" s="26"/>
     </row>
-    <row r="83" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B83" s="24" t="s">
         <v>302</v>
       </c>
       <c r="M83" s="26"/>
     </row>
-    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B84" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D85" s="27" t="s">
         <v>53</v>
       </c>
@@ -3011,10 +3011,10 @@
         <v>284</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D86" s="27" t="s">
         <v>57</v>
       </c>
@@ -3031,10 +3031,10 @@
         <v>2020</v>
       </c>
       <c r="N86" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D87" s="27" t="s">
         <v>117</v>
       </c>
@@ -3045,10 +3045,10 @@
         <v>118</v>
       </c>
       <c r="N87" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D88" s="27" t="s">
         <v>4</v>
       </c>
@@ -3059,10 +3059,10 @@
         <v>289</v>
       </c>
       <c r="N88" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D89" s="27" t="s">
         <v>9</v>
       </c>
@@ -3076,10 +3076,10 @@
         <v>120</v>
       </c>
       <c r="N89" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B90" s="27" t="s">
         <v>45</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D91" s="27" t="s">
         <v>117</v>
       </c>
@@ -3101,18 +3101,18 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B92" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B93" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="95" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B95" s="27" t="s">
         <v>45</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D96" s="27" t="s">
         <v>56</v>
       </c>
@@ -3137,15 +3137,15 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B97" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M98" s="26"/>
     </row>
-    <row r="99" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D99" s="24" t="s">
         <v>9</v>
       </c>
@@ -3160,10 +3160,10 @@
       </c>
       <c r="M99" s="26"/>
       <c r="N99" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B100" s="24" t="s">
         <v>45</v>
       </c>
@@ -3172,30 +3172,30 @@
       </c>
       <c r="M100" s="26"/>
     </row>
-    <row r="101" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B101" s="24" t="s">
         <v>281</v>
       </c>
       <c r="M101" s="26"/>
     </row>
-    <row r="102" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B102" s="24" t="s">
         <v>302</v>
       </c>
       <c r="M102" s="26"/>
     </row>
-    <row r="103" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M103" s="26"/>
     </row>
-    <row r="104" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M104" s="26"/>
     </row>
-    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B105" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D106" s="27" t="s">
         <v>53</v>
       </c>
@@ -3206,10 +3206,10 @@
         <v>284</v>
       </c>
       <c r="N106" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D107" s="27" t="s">
         <v>57</v>
       </c>
@@ -3226,10 +3226,10 @@
         <v>2020</v>
       </c>
       <c r="N107" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D108" s="27" t="s">
         <v>117</v>
       </c>
@@ -3240,10 +3240,10 @@
         <v>118</v>
       </c>
       <c r="N108" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D109" s="27" t="s">
         <v>4</v>
       </c>
@@ -3254,10 +3254,10 @@
         <v>289</v>
       </c>
       <c r="N109" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D110" s="27" t="s">
         <v>9</v>
       </c>
@@ -3271,10 +3271,10 @@
         <v>120</v>
       </c>
       <c r="N110" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B111" s="27" t="s">
         <v>45</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D112" s="27" t="s">
         <v>117</v>
       </c>
@@ -3296,18 +3296,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B113" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B114" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B116" s="27" t="s">
         <v>45</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D117" s="27" t="s">
         <v>56</v>
       </c>
@@ -3332,13 +3332,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B118" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="120" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D120" s="24" t="s">
         <v>9</v>
       </c>
@@ -3353,10 +3353,10 @@
       </c>
       <c r="M120" s="26"/>
       <c r="N120" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B121" s="24" t="s">
         <v>45</v>
       </c>
@@ -3365,26 +3365,26 @@
       </c>
       <c r="M121" s="26"/>
     </row>
-    <row r="122" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B122" s="24" t="s">
         <v>281</v>
       </c>
       <c r="M122" s="26"/>
     </row>
-    <row r="123" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B123" s="24" t="s">
         <v>302</v>
       </c>
       <c r="M123" s="26"/>
     </row>
-    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B126" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D127" s="27" t="s">
         <v>53</v>
       </c>
@@ -3395,10 +3395,10 @@
         <v>284</v>
       </c>
       <c r="N127" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D128" s="27" t="s">
         <v>57</v>
       </c>
@@ -3415,10 +3415,10 @@
         <v>2020</v>
       </c>
       <c r="N128" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D129" s="27" t="s">
         <v>117</v>
       </c>
@@ -3429,10 +3429,10 @@
         <v>118</v>
       </c>
       <c r="N129" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D130" s="27" t="s">
         <v>4</v>
       </c>
@@ -3443,10 +3443,10 @@
         <v>289</v>
       </c>
       <c r="N130" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D131" s="27" t="s">
         <v>9</v>
       </c>
@@ -3460,10 +3460,10 @@
         <v>120</v>
       </c>
       <c r="N131" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B132" s="27" t="s">
         <v>45</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="133" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D133" s="27" t="s">
         <v>117</v>
       </c>
@@ -3485,18 +3485,18 @@
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B134" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B135" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="137" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B137" s="27" t="s">
         <v>45</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D138" s="27" t="s">
         <v>56</v>
       </c>
@@ -3521,15 +3521,15 @@
         <v>338</v>
       </c>
     </row>
-    <row r="139" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B139" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M140" s="26"/>
     </row>
-    <row r="141" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -3539,7 +3539,7 @@
       <c r="H141" s="25"/>
       <c r="M141" s="26"/>
     </row>
-    <row r="142" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B142" s="25" t="s">
         <v>48</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="H142" s="25"/>
       <c r="M142" s="26"/>
     </row>
-    <row r="143" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B143" s="25" t="s">
         <v>48</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="H143" s="25"/>
       <c r="M143" s="26"/>
     </row>
-    <row r="144" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B144" s="25" t="s">
         <v>48</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="H144" s="25"/>
       <c r="M144" s="26"/>
     </row>
-    <row r="145" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B145" s="25" t="s">
         <v>339</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="H145" s="25"/>
       <c r="M145" s="26"/>
     </row>
-    <row r="146" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
@@ -3597,25 +3597,25 @@
       <c r="H146" s="25"/>
       <c r="M146" s="26"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A148" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B149" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D150" s="2" t="s">
         <v>56</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D151" s="2" t="s">
         <v>56</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -3646,7 +3646,7 @@
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D153" s="2" t="s">
         <v>56</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D154" s="2" t="s">
         <v>56</v>
       </c>
@@ -3668,11 +3668,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
@@ -3686,10 +3686,10 @@
         <v>222</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D157" s="2" t="s">
         <v>225</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B158" s="15" t="s">
         <v>47</v>
       </c>
@@ -3711,14 +3711,14 @@
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B159" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A160" s="2" t="s">
         <v>140</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B161" s="2" t="s">
         <v>45</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="D161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="63" x14ac:dyDescent="0.5">
       <c r="D162" s="2" t="s">
         <v>4</v>
       </c>
@@ -3762,21 +3762,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B163" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A165" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D166" s="6" t="s">
         <v>240</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D167" s="2" t="s">
         <v>240</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D168" s="6" t="s">
         <v>240</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D169" s="6" t="s">
         <v>240</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D170" s="2" t="s">
         <v>240</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D173" s="2" t="s">
         <v>4</v>
       </c>
@@ -3872,13 +3872,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3886,7 +3886,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -3944,11 +3944,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3970,13 +3970,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -3985,9 +3985,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -3996,22 +3996,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B13" s="2">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4033,10 +4033,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -4120,14 +4120,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -4160,15 +4160,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -4201,17 +4201,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -4244,14 +4244,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4295,15 +4295,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
@@ -4336,575 +4336,602 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="2">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="2">
         <v>3</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2">
+        <v>88</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="2">
+        <v>88</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="2">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="2">
         <v>2</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B74" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B78" s="2">
-        <v>2</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141" s="1"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A240" s="1"/>
       <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A241" s="1"/>
+      <c r="C241" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4927,7 +4954,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -4941,7 +4968,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -4976,7 +5003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -5002,7 +5029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="15" t="s">
         <v>125</v>
       </c>
@@ -5043,14 +5070,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -5064,7 +5091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -5078,7 +5105,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5101,17 +5128,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5119,7 +5146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -5127,7 +5154,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -5135,7 +5162,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>188</v>
       </c>
@@ -5143,7 +5170,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -5151,7 +5178,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -5159,7 +5186,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -5167,7 +5194,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>266</v>
       </c>
@@ -5175,7 +5202,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>202</v>
       </c>
@@ -5183,7 +5210,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>208</v>
       </c>
@@ -5191,7 +5218,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -5199,7 +5226,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -5207,7 +5234,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -5215,7 +5242,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -5223,7 +5250,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -5231,7 +5258,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>243</v>
       </c>
@@ -5239,7 +5266,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>253</v>
       </c>
@@ -5247,7 +5274,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>237</v>
       </c>
@@ -5255,7 +5282,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>236</v>
       </c>
@@ -5263,7 +5290,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>258</v>
       </c>
@@ -5271,7 +5298,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>261</v>
       </c>
@@ -5279,7 +5306,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>345</v>
       </c>
@@ -5287,7 +5314,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>347</v>
       </c>
@@ -5295,84 +5322,84 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="12" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5389,13 +5416,13 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5411,7 +5438,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -5419,7 +5446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -5427,7 +5454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
@@ -5435,7 +5462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -5443,7 +5470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
@@ -5451,7 +5478,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="20" t="s">
         <v>149</v>
       </c>
@@ -5459,7 +5486,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
         <v>149</v>
       </c>
@@ -5467,7 +5494,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
@@ -5475,7 +5502,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5483,7 +5510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -5491,7 +5518,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
@@ -5499,7 +5526,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
         <v>149</v>
       </c>
@@ -5507,7 +5534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
@@ -5515,7 +5542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -5523,7 +5550,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>79</v>
       </c>
@@ -5531,7 +5558,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
@@ -5539,7 +5566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
@@ -5547,7 +5574,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
@@ -5555,7 +5582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
@@ -5563,7 +5590,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
@@ -5571,7 +5598,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
@@ -5579,7 +5606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
@@ -5587,7 +5614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
@@ -5595,7 +5622,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
@@ -5603,7 +5630,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
@@ -5611,7 +5638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -5619,7 +5646,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
@@ -5627,7 +5654,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
@@ -5635,7 +5662,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="17" t="s">
         <v>117</v>
       </c>
@@ -5643,7 +5670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="17" t="s">
         <v>9</v>
       </c>
@@ -5651,7 +5678,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
@@ -5659,7 +5686,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="16" t="s">
         <v>117</v>
       </c>
@@ -5667,7 +5694,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="17" t="s">
         <v>9</v>
       </c>
@@ -5675,7 +5702,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="16" t="s">
         <v>9</v>
       </c>
@@ -5683,7 +5710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
@@ -5691,7 +5718,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="16" t="s">
         <v>4</v>
       </c>
@@ -5699,7 +5726,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="16" t="s">
         <v>4</v>
       </c>
@@ -5707,7 +5734,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>225</v>
       </c>
@@ -5715,7 +5742,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -5723,7 +5750,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5731,7 +5758,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>240</v>
       </c>
@@ -5739,7 +5766,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>240</v>
       </c>
@@ -5747,7 +5774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="6" t="s">
         <v>240</v>
       </c>
@@ -5755,7 +5782,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="6" t="s">
         <v>240</v>
       </c>
@@ -5763,7 +5790,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="6" t="s">
         <v>240</v>
       </c>
@@ -5771,7 +5798,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="6" t="s">
         <v>240</v>
       </c>
@@ -5779,11 +5806,11 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="15" t="s">
         <v>9</v>
       </c>
@@ -5791,7 +5818,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -5799,7 +5826,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5807,7 +5834,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -5815,7 +5842,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -5823,7 +5850,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -5831,7 +5858,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -5839,7 +5866,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -5847,7 +5874,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -5855,7 +5882,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -5863,7 +5890,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -5871,7 +5898,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -5879,7 +5906,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -5887,7 +5914,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -5895,7 +5922,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -5903,7 +5930,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -5911,7 +5938,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -5919,7 +5946,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -5927,7 +5954,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -5935,7 +5962,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -5943,7 +5970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -5951,7 +5978,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5959,7 +5986,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -5967,7 +5994,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -5975,7 +6002,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -5983,7 +6010,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5991,7 +6018,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -5999,7 +6026,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>117</v>
       </c>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E43C7-3A97-469C-A090-E556A6CE5FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF395B9-3737-46A8-BD38-6A73C32ABCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="374">
   <si>
     <t>type</t>
   </si>
@@ -829,9 +829,6 @@
     <t>data_fomulario</t>
   </si>
   <si>
-    <t>iniciais</t>
-  </si>
-  <si>
     <t>dia_alterado</t>
   </si>
   <si>
@@ -855,9 +852,6 @@
   <si>
     <t>Amodiaquina
 Data: {{calculates.date_form_display}}</t>
-  </si>
-  <si>
-    <t>data('cs')=='bafata' ? "BA" : data('cs')=='bambadinca' ? "KN" : data('cs')=='cosse' ? "CS" :data('cs')=='gabu' ? "GU" :data('cs')=='mafanco' ? "MF" :data('cs')=='pitche' ? "PT" : ""</t>
   </si>
   <si>
     <t>DoseAdjustedDay</t>
@@ -1901,10 +1895,10 @@
   <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2024,7 +2018,7 @@
         <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
@@ -2091,7 +2085,7 @@
         <v>124</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.5">
@@ -2145,10 +2139,10 @@
         <v>95</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -2157,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>158</v>
@@ -2166,7 +2160,7 @@
         <v>96</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
@@ -2198,7 +2192,7 @@
         <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
@@ -2215,7 +2209,7 @@
         <v>99</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
@@ -2232,7 +2226,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
@@ -2249,7 +2243,7 @@
         <v>101</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
@@ -2266,7 +2260,7 @@
         <v>102</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
@@ -2297,7 +2291,7 @@
         <v>106</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
@@ -2314,7 +2308,7 @@
         <v>104</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
@@ -2322,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>166</v>
@@ -2331,7 +2325,7 @@
         <v>105</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
@@ -2348,7 +2342,7 @@
         <v>107</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
@@ -2414,7 +2408,7 @@
         <v>130</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.5">
@@ -2454,7 +2448,7 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.5">
@@ -2509,7 +2503,7 @@
         <v>196</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -2555,7 +2549,7 @@
         <v>172</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H47" s="15"/>
     </row>
@@ -2578,7 +2572,7 @@
       </c>
       <c r="H49" s="15"/>
       <c r="N49" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="110.25" x14ac:dyDescent="0.5">
@@ -2621,7 +2615,7 @@
       </c>
       <c r="H51" s="15"/>
       <c r="N51" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.5">
@@ -2679,22 +2673,22 @@
         <v>42</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H58" s="15"/>
       <c r="N58" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B59" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -2705,7 +2699,7 @@
     </row>
     <row r="60" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B60" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -2727,7 +2721,7 @@
     </row>
     <row r="62" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B62" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -2783,15 +2777,15 @@
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H66" s="25"/>
       <c r="M66" s="26"/>
       <c r="N66" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2802,10 +2796,10 @@
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H67" s="25"/>
       <c r="J67" s="24">
@@ -2816,7 +2810,7 @@
       </c>
       <c r="M67" s="26"/>
       <c r="N67" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2827,7 +2821,7 @@
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>118</v>
@@ -2835,7 +2829,7 @@
       <c r="H68" s="25"/>
       <c r="M68" s="26"/>
       <c r="N68" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2846,15 +2840,15 @@
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H69" s="25"/>
       <c r="M69" s="26"/>
       <c r="N69" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2867,7 +2861,7 @@
         <v>42</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>120</v>
@@ -2875,7 +2869,7 @@
       <c r="H70" s="25"/>
       <c r="M70" s="26"/>
       <c r="N70" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2883,11 +2877,11 @@
         <v>45</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M71" s="26"/>
       <c r="N71" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2895,10 +2889,10 @@
         <v>117</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M72" s="26"/>
     </row>
@@ -2908,7 +2902,7 @@
       </c>
       <c r="M73" s="26"/>
       <c r="N73" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2925,7 +2919,7 @@
         <v>45</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M76" s="26"/>
     </row>
@@ -2934,16 +2928,16 @@
         <v>56</v>
       </c>
       <c r="F77" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I77" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="G77" s="24" t="s">
+      <c r="L77" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="L77" s="24" t="s">
-        <v>298</v>
       </c>
       <c r="M77" s="26"/>
     </row>
@@ -2964,14 +2958,14 @@
         <v>42</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M80" s="26"/>
       <c r="N80" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -2979,19 +2973,19 @@
         <v>45</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M81" s="26"/>
     </row>
     <row r="82" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B82" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M82" s="26"/>
     </row>
     <row r="83" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B83" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M83" s="26"/>
     </row>
@@ -3005,13 +2999,13 @@
         <v>53</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3019,10 +3013,10 @@
         <v>57</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J86" s="27">
         <v>2020</v>
@@ -3031,7 +3025,7 @@
         <v>2020</v>
       </c>
       <c r="N86" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3039,13 +3033,13 @@
         <v>117</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>118</v>
       </c>
       <c r="N87" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3053,13 +3047,13 @@
         <v>4</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N88" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3070,13 +3064,13 @@
         <v>42</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>120</v>
       </c>
       <c r="N89" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3084,7 +3078,7 @@
         <v>45</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3092,13 +3086,13 @@
         <v>117</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N91" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3117,7 +3111,7 @@
         <v>45</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3125,16 +3119,16 @@
         <v>56</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I96" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L96" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3153,14 +3147,14 @@
         <v>42</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M99" s="26"/>
       <c r="N99" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -3168,19 +3162,19 @@
         <v>45</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M100" s="26"/>
     </row>
     <row r="101" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B101" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M101" s="26"/>
     </row>
     <row r="102" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B102" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M102" s="26"/>
     </row>
@@ -3200,13 +3194,13 @@
         <v>53</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N106" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3214,10 +3208,10 @@
         <v>57</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J107" s="27">
         <v>2020</v>
@@ -3226,7 +3220,7 @@
         <v>2020</v>
       </c>
       <c r="N107" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3234,13 +3228,13 @@
         <v>117</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G108" s="27" t="s">
         <v>118</v>
       </c>
       <c r="N108" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3248,13 +3242,13 @@
         <v>4</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N109" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3265,13 +3259,13 @@
         <v>42</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>120</v>
       </c>
       <c r="N110" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3279,7 +3273,7 @@
         <v>45</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3287,13 +3281,13 @@
         <v>117</v>
       </c>
       <c r="F112" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N112" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3312,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3320,16 +3314,16 @@
         <v>56</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L117" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3346,14 +3340,14 @@
         <v>42</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M120" s="26"/>
       <c r="N120" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
@@ -3361,19 +3355,19 @@
         <v>45</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M121" s="26"/>
     </row>
     <row r="122" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B122" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M122" s="26"/>
     </row>
     <row r="123" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B123" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M123" s="26"/>
     </row>
@@ -3389,13 +3383,13 @@
         <v>53</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N127" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3403,10 +3397,10 @@
         <v>57</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J128" s="27">
         <v>2020</v>
@@ -3415,7 +3409,7 @@
         <v>2020</v>
       </c>
       <c r="N128" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3423,13 +3417,13 @@
         <v>117</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>118</v>
       </c>
       <c r="N129" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3437,13 +3431,13 @@
         <v>4</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G130" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N130" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3454,13 +3448,13 @@
         <v>42</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>120</v>
       </c>
       <c r="N131" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3468,7 +3462,7 @@
         <v>45</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3476,13 +3470,13 @@
         <v>117</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G133" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N133" s="27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3501,7 +3495,7 @@
         <v>45</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3509,16 +3503,16 @@
         <v>56</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G138" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L138" s="27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
@@ -3577,7 +3571,7 @@
     </row>
     <row r="145" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B145" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
@@ -3603,7 +3597,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A148" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D148" s="2"/>
       <c r="F148" s="2"/>
@@ -3634,7 +3628,7 @@
         <v>220</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.5">
@@ -3686,7 +3680,7 @@
         <v>222</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.5">
@@ -3756,7 +3750,7 @@
         <v>184</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>183</v>
@@ -3809,10 +3803,10 @@
         <v>240</v>
       </c>
       <c r="F168" t="s">
+        <v>261</v>
+      </c>
+      <c r="P168" t="s">
         <v>262</v>
-      </c>
-      <c r="P168" t="s">
-        <v>263</v>
       </c>
       <c r="W168" s="2" t="b">
         <v>1</v>
@@ -3823,10 +3817,10 @@
         <v>240</v>
       </c>
       <c r="F169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P169" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W169" s="2" t="b">
         <v>1</v>
@@ -3854,7 +3848,7 @@
         <v>185</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3874,8 +3868,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3976,7 +3970,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -3987,7 +3981,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -3998,13 +3992,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B13" s="2">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
@@ -4069,10 +4063,10 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -4097,10 +4091,10 @@
         <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -4344,7 +4338,7 @@
         <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.5">
@@ -4391,7 +4385,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
@@ -4438,7 +4432,7 @@
         <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
@@ -4508,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.5">
@@ -5126,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A24" sqref="A24:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5156,10 +5150,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
         <v>267</v>
-      </c>
-      <c r="B3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -5183,23 +5177,23 @@
         <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
         <v>262</v>
-      </c>
-      <c r="B7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -5239,7 +5233,7 @@
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -5298,108 +5292,100 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" t="s">
-        <v>270</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="12" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B28" s="2" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="12" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B32" s="2" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B31" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="12" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B36" s="2" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B39" t="s">
-        <v>375</v>
+        <v>335</v>
+      </c>
+      <c r="B38" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5773,7 @@
         <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
@@ -5795,7 +5781,7 @@
         <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
@@ -5803,7 +5789,7 @@
         <v>240</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
@@ -5815,7 +5801,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
@@ -5823,7 +5809,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
@@ -5831,7 +5817,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
@@ -5839,7 +5825,7 @@
         <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
@@ -5847,7 +5833,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
@@ -5855,7 +5841,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
@@ -5863,7 +5849,7 @@
         <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
@@ -5871,7 +5857,7 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
@@ -5879,7 +5865,7 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
@@ -5887,7 +5873,7 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
@@ -5895,7 +5881,7 @@
         <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
@@ -5903,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
@@ -5911,7 +5897,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
@@ -5919,7 +5905,7 @@
         <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
@@ -5927,7 +5913,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
@@ -5935,7 +5921,7 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
@@ -5943,7 +5929,7 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
@@ -5951,7 +5937,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
@@ -5959,7 +5945,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
@@ -5967,7 +5953,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.5">
@@ -5975,7 +5961,7 @@
         <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
@@ -5983,7 +5969,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
@@ -5991,7 +5977,7 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
@@ -5999,7 +5985,7 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
@@ -6007,7 +5993,7 @@
         <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
@@ -6015,7 +6001,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
@@ -6023,7 +6009,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.5">
@@ -6031,7 +6017,7 @@
         <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF395B9-3737-46A8-BD38-6A73C32ABCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81A294D-1127-4D99-9F23-407606C0E99A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="375">
   <si>
     <t>type</t>
   </si>
@@ -1167,6 +1167,9 @@
   </si>
   <si>
     <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>hoje</t>
   </si>
 </sst>
 </file>
@@ -1829,14 +1832,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>2020071900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1894,14 +1897,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1922,7 +1925,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1999,18 +2002,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
@@ -2032,14 +2035,14 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>139</v>
       </c>
@@ -2067,11 +2070,11 @@
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
@@ -2098,7 +2101,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
@@ -2109,25 +2112,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="63" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="D16" s="2" t="s">
         <v>79</v>
@@ -2145,7 +2148,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -2163,7 +2166,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -2171,14 +2174,14 @@
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2263,21 +2266,21 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
@@ -2355,7 +2358,7 @@
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
@@ -2373,7 +2376,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>110</v>
       </c>
@@ -2385,7 +2388,7 @@
       <c r="H33" s="15"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="2" t="s">
         <v>47</v>
@@ -2393,7 +2396,7 @@
       <c r="D34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2411,7 +2414,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="2" t="s">
         <v>45</v>
@@ -2422,7 +2425,7 @@
       <c r="D36" s="2"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>46</v>
       </c>
@@ -2433,7 +2436,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2451,7 +2454,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
@@ -2464,7 +2467,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
@@ -2475,7 +2478,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -2484,7 +2487,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>48</v>
@@ -2492,12 +2495,12 @@
       <c r="D42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" s="2" t="s">
         <v>196</v>
@@ -2508,7 +2511,7 @@
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
@@ -2519,7 +2522,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="2" t="s">
@@ -2538,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
@@ -2553,11 +2556,11 @@
       </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
@@ -2575,7 +2578,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="110.25" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
@@ -2598,7 +2601,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
@@ -2618,7 +2621,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>198</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
         <v>117</v>
       </c>
@@ -2642,28 +2645,28 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
@@ -2683,7 +2686,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="25" t="s">
         <v>277</v>
       </c>
@@ -2697,7 +2700,7 @@
       <c r="H59" s="25"/>
       <c r="M59" s="26"/>
     </row>
-    <row r="60" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
         <v>279</v>
       </c>
@@ -2709,7 +2712,7 @@
       <c r="H60" s="25"/>
       <c r="M60" s="26"/>
     </row>
-    <row r="61" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -2719,7 +2722,7 @@
       <c r="H61" s="25"/>
       <c r="M61" s="26"/>
     </row>
-    <row r="62" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
         <v>280</v>
       </c>
@@ -2731,7 +2734,7 @@
       <c r="H62" s="25"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -2741,7 +2744,7 @@
       <c r="H63" s="25"/>
       <c r="M63" s="26"/>
     </row>
-    <row r="64" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="25" t="s">
         <v>46</v>
       </c>
@@ -2753,7 +2756,7 @@
       <c r="H64" s="25"/>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25" t="s">
@@ -2769,7 +2772,7 @@
       <c r="H65" s="25"/>
       <c r="M65" s="26"/>
     </row>
-    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25" t="s">
@@ -2788,7 +2791,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25" t="s">
@@ -2813,7 +2816,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25" t="s">
@@ -2832,7 +2835,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25" t="s">
@@ -2851,7 +2854,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25" t="s">
@@ -2872,7 +2875,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="24" t="s">
         <v>45</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="72" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D72" s="24" t="s">
         <v>117</v>
       </c>
@@ -2896,7 +2899,7 @@
       </c>
       <c r="M72" s="26"/>
     </row>
-    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
         <v>48</v>
       </c>
@@ -2905,16 +2908,16 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M74" s="26"/>
     </row>
-    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" s="26"/>
     </row>
-    <row r="76" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="24" t="s">
         <v>45</v>
       </c>
@@ -2923,7 +2926,7 @@
       </c>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D77" s="24" t="s">
         <v>56</v>
       </c>
@@ -2941,16 +2944,16 @@
       </c>
       <c r="M77" s="26"/>
     </row>
-    <row r="78" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M78" s="26"/>
     </row>
-    <row r="79" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M79" s="26"/>
     </row>
-    <row r="80" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D80" s="24" t="s">
         <v>9</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>45</v>
       </c>
@@ -2977,24 +2980,24 @@
       </c>
       <c r="M81" s="26"/>
     </row>
-    <row r="82" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M82" s="26"/>
     </row>
-    <row r="83" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="24" t="s">
         <v>300</v>
       </c>
       <c r="M83" s="26"/>
     </row>
-    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D85" s="27" t="s">
         <v>53</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D86" s="27" t="s">
         <v>57</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D87" s="27" t="s">
         <v>117</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D88" s="27" t="s">
         <v>4</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D89" s="27" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="90" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="27" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D91" s="27" t="s">
         <v>117</v>
       </c>
@@ -3095,18 +3098,18 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="95" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="27" t="s">
         <v>45</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D96" s="27" t="s">
         <v>56</v>
       </c>
@@ -3131,15 +3134,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M98" s="26"/>
     </row>
-    <row r="99" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D99" s="24" t="s">
         <v>9</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="24" t="s">
         <v>45</v>
       </c>
@@ -3166,30 +3169,30 @@
       </c>
       <c r="M100" s="26"/>
     </row>
-    <row r="101" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M101" s="26"/>
     </row>
-    <row r="102" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
         <v>300</v>
       </c>
       <c r="M102" s="26"/>
     </row>
-    <row r="103" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M103" s="26"/>
     </row>
-    <row r="104" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M104" s="26"/>
     </row>
-    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D106" s="27" t="s">
         <v>53</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D107" s="27" t="s">
         <v>57</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D108" s="27" t="s">
         <v>117</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D109" s="27" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D110" s="27" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="27" t="s">
         <v>45</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D112" s="27" t="s">
         <v>117</v>
       </c>
@@ -3290,18 +3293,18 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="27" t="s">
         <v>45</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D117" s="27" t="s">
         <v>56</v>
       </c>
@@ -3326,13 +3329,13 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="120" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D120" s="24" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="24" t="s">
         <v>45</v>
       </c>
@@ -3359,26 +3362,26 @@
       </c>
       <c r="M121" s="26"/>
     </row>
-    <row r="122" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M122" s="26"/>
     </row>
-    <row r="123" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
         <v>300</v>
       </c>
       <c r="M123" s="26"/>
     </row>
-    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D127" s="27" t="s">
         <v>53</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D128" s="27" t="s">
         <v>57</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="129" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D129" s="27" t="s">
         <v>117</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="130" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D130" s="27" t="s">
         <v>4</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D131" s="27" t="s">
         <v>9</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="27" t="s">
         <v>45</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="133" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D133" s="27" t="s">
         <v>117</v>
       </c>
@@ -3479,18 +3482,18 @@
         <v>332</v>
       </c>
     </row>
-    <row r="134" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="137" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="27" t="s">
         <v>45</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="138" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D138" s="27" t="s">
         <v>56</v>
       </c>
@@ -3515,15 +3518,15 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M140" s="26"/>
     </row>
-    <row r="141" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -3533,7 +3536,7 @@
       <c r="H141" s="25"/>
       <c r="M141" s="26"/>
     </row>
-    <row r="142" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="25" t="s">
         <v>48</v>
       </c>
@@ -3545,7 +3548,7 @@
       <c r="H142" s="25"/>
       <c r="M142" s="26"/>
     </row>
-    <row r="143" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="25" t="s">
         <v>48</v>
       </c>
@@ -3557,7 +3560,7 @@
       <c r="H143" s="25"/>
       <c r="M143" s="26"/>
     </row>
-    <row r="144" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="25" t="s">
         <v>48</v>
       </c>
@@ -3569,7 +3572,7 @@
       <c r="H144" s="25"/>
       <c r="M144" s="26"/>
     </row>
-    <row r="145" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="25" t="s">
         <v>337</v>
       </c>
@@ -3581,7 +3584,7 @@
       <c r="H145" s="25"/>
       <c r="M145" s="26"/>
     </row>
-    <row r="146" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
@@ -3591,25 +3594,25 @@
       <c r="H146" s="25"/>
       <c r="M146" s="26"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D150" s="2" t="s">
         <v>56</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D151" s="2" t="s">
         <v>56</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -3640,7 +3643,7 @@
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D153" s="2" t="s">
         <v>56</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D154" s="2" t="s">
         <v>56</v>
       </c>
@@ -3662,11 +3665,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D157" s="2" t="s">
         <v>225</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B158" s="15" t="s">
         <v>47</v>
       </c>
@@ -3705,14 +3708,14 @@
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>140</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>45</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="D161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="63" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="D162" s="2" t="s">
         <v>4</v>
       </c>
@@ -3756,21 +3759,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D166" s="6" t="s">
         <v>240</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D167" s="2" t="s">
         <v>240</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D168" s="6" t="s">
         <v>240</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D169" s="6" t="s">
         <v>240</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D170" s="2" t="s">
         <v>240</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D173" s="2" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +3875,7 @@
       <selection activeCell="A49" sqref="A49:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3880,7 +3883,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -3938,11 +3941,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3964,11 +3967,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>363</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>363</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>363</v>
       </c>
@@ -4001,11 +4004,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4027,10 +4030,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -4114,14 +4117,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -4154,15 +4157,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -4195,17 +4198,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -4238,14 +4241,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4289,15 +4292,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
@@ -4341,10 +4344,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -4388,10 +4391,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>103</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>103</v>
       </c>
@@ -4435,10 +4438,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>121</v>
       </c>
@@ -4460,13 +4463,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>122</v>
       </c>
@@ -4488,13 +4491,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>145</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -4549,11 +4552,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>230</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>230</v>
       </c>
@@ -4586,344 +4589,344 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="C241" s="1"/>
     </row>
@@ -4948,7 +4951,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -4962,7 +4965,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>125</v>
       </c>
@@ -5064,14 +5067,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5120,19 +5123,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5140,251 +5143,259 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>266</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>229</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>246</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>261</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>265</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>210</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>212</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>214</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>216</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>218</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>243</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>237</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>258</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5402,13 +5413,13 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5416,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5424,7 +5435,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -5432,7 +5443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -5440,7 +5451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
@@ -5448,7 +5459,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -5456,7 +5467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
@@ -5464,7 +5475,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>149</v>
       </c>
@@ -5472,7 +5483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>149</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
@@ -5488,7 +5499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5496,7 +5507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -5504,7 +5515,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
@@ -5512,7 +5523,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>149</v>
       </c>
@@ -5520,7 +5531,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -5536,7 +5547,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>79</v>
       </c>
@@ -5544,7 +5555,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
@@ -5552,7 +5563,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
@@ -5560,7 +5571,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
@@ -5568,7 +5579,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +5587,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
@@ -5584,7 +5595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
@@ -5592,7 +5603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
@@ -5600,7 +5611,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
@@ -5608,7 +5619,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
@@ -5616,7 +5627,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
@@ -5624,7 +5635,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -5632,7 +5643,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
@@ -5640,7 +5651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
@@ -5648,7 +5659,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>117</v>
       </c>
@@ -5656,7 +5667,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>9</v>
       </c>
@@ -5664,7 +5675,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
@@ -5672,7 +5683,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>117</v>
       </c>
@@ -5680,7 +5691,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>9</v>
       </c>
@@ -5688,7 +5699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>9</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
@@ -5704,7 +5715,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>4</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +5731,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>225</v>
       </c>
@@ -5728,7 +5739,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -5736,7 +5747,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5755,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>240</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>240</v>
       </c>
@@ -5760,7 +5771,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>240</v>
       </c>
@@ -5768,7 +5779,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>240</v>
       </c>
@@ -5776,7 +5787,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>240</v>
       </c>
@@ -5784,7 +5795,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>240</v>
       </c>
@@ -5792,11 +5803,11 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>9</v>
       </c>
@@ -5804,7 +5815,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -5812,7 +5823,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5820,7 +5831,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -5828,7 +5839,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -5836,7 +5847,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -5844,7 +5855,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -5852,7 +5863,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -5860,7 +5871,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -5868,7 +5879,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -5876,7 +5887,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -5884,7 +5895,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -5892,7 +5903,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -5900,7 +5911,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -5908,7 +5919,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -5916,7 +5927,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -5924,7 +5935,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -5932,7 +5943,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -5940,7 +5951,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -5948,7 +5959,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -5956,7 +5967,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -5964,7 +5975,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -5980,7 +5991,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -5988,7 +5999,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -5996,7 +6007,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -6004,7 +6015,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -6012,7 +6023,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>117</v>
       </c>

--- a/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
+++ b/app/config/tables/seguimento/forms/seguimento/seguimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\seguimento\forms\seguimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81A294D-1127-4D99-9F23-407606C0E99A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752F1C89-1E3C-4591-9256-1E6B3544919A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="374">
   <si>
     <t>type</t>
   </si>
@@ -689,9 +689,6 @@
     <t>id_lamina</t>
   </si>
   <si>
-    <t>""+ data('id_estudo') + "X" + calculates.visita_id()</t>
-  </si>
-  <si>
     <t>nao_tel</t>
   </si>
   <si>
@@ -844,332 +841,332 @@
     <t>dia_corregido</t>
   </si>
   <si>
-    <t>date_form_display</t>
-  </si>
-  <si>
-    <t>adate.display(calculates.date_form())</t>
+    <t>DoseAdjustedDay</t>
+  </si>
+  <si>
+    <t>data('DoseAdjustedDay')=='1' || data('DoseAdjustedDay')=='2'</t>
+  </si>
+  <si>
+    <t>A criança na se encontra em casa</t>
+  </si>
+  <si>
+    <t>Especifica a razão da recusa ou "OUTRO"</t>
+  </si>
+  <si>
+    <t>(calculates.visita_id() != data('DoseAdjustedDay')) ? data('DoseAdjustedDay') : calculates.dia_alterado()</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>""+ data('id_estudo') + "D" + calculates.dia_corregido()</t>
+  </si>
+  <si>
+    <t>outros_med</t>
+  </si>
+  <si>
+    <t>if // outro_medi</t>
+  </si>
+  <si>
+    <t>data('outros_med')=='2'</t>
+  </si>
+  <si>
+    <t>goto lab</t>
+  </si>
+  <si>
+    <t>else // outro_medi</t>
+  </si>
+  <si>
+    <t>med_adm1</t>
+  </si>
+  <si>
+    <t>Nome do Medicamento</t>
+  </si>
+  <si>
+    <t>date_adm1</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>hora_adm1</t>
+  </si>
+  <si>
+    <t>dose_adm1</t>
+  </si>
+  <si>
+    <t>Nº de comprimido</t>
+  </si>
+  <si>
+    <t>vomitou_adm1</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm1')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm1</t>
+  </si>
+  <si>
+    <t>A hora que vomitou S.P?</t>
+  </si>
+  <si>
+    <t>calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>erro_data1</t>
+  </si>
+  <si>
+    <t>Não se admite falta de informação na datas e nem as datas no futuro</t>
+  </si>
+  <si>
+    <t>Por favor verifica verifica de novo a data introduzida</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>outro_med2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med2')=='2'</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>med_adm2</t>
+  </si>
+  <si>
+    <t>date_adm2</t>
+  </si>
+  <si>
+    <t>hora_adm2</t>
+  </si>
+  <si>
+    <t>dose_adm2</t>
+  </si>
+  <si>
+    <t>vomitou_adm2</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm2')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm2</t>
+  </si>
+  <si>
+    <t>calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>erro_data2</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>outro_med3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}}  e {{data.med_adm2}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med3')=='2'</t>
+  </si>
+  <si>
+    <t>med_adm3</t>
+  </si>
+  <si>
+    <t>date_adm3</t>
+  </si>
+  <si>
+    <t>hora_adm3</t>
+  </si>
+  <si>
+    <t>dose_adm3</t>
+  </si>
+  <si>
+    <t>vomitou_adm3</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm3')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm3</t>
+  </si>
+  <si>
+    <t>calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>erro_data3</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>outro_med4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} , {{data.med_adm2}}  e {{data.med_adm3}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med4')=='2'</t>
+  </si>
+  <si>
+    <t>med_adm4</t>
+  </si>
+  <si>
+    <t>date_adm4</t>
+  </si>
+  <si>
+    <t>hora_adm4</t>
+  </si>
+  <si>
+    <t>dose_adm4</t>
+  </si>
+  <si>
+    <t>vomitou_adm4</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm4')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm4</t>
+  </si>
+  <si>
+    <t>calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>erro_data4</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>end if // outro_medi</t>
+  </si>
+  <si>
+    <t>Código:{{data.id_estudo}}     |     D{{calculates.dia_corregido}}</t>
+  </si>
+  <si>
+    <t>ganmamudo</t>
+  </si>
+  <si>
+    <t>Gã-Mamudo</t>
+  </si>
+  <si>
+    <t>sonaco</t>
+  </si>
+  <si>
+    <t>Sonaco</t>
+  </si>
+  <si>
+    <t>nao_data1</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm1'))</t>
+  </si>
+  <si>
+    <t>nao_futuro1</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm1'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>nao_data2</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm2'))</t>
+  </si>
+  <si>
+    <t>nao_futuro2</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm2'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>nao_data3</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm3'))</t>
+  </si>
+  <si>
+    <t>nao_futuro3</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm3'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>nao_data4</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm4'))</t>
+  </si>
+  <si>
+    <t>nao_futuro4</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm4'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>clicando no botao "Create new instance" ou "Criar nova instancia"</t>
+  </si>
+  <si>
+    <t>se não for tomada coloca 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('temperatura')==888 || (data('temperatura')&gt;=34  &amp;&amp; data('temperatura')&lt;=43) </t>
+  </si>
+  <si>
+    <t>yesnodk</t>
+  </si>
+  <si>
+    <t>data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>data('presenca')=='1'</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data1() || calculates.nao_futuro1()&lt;0) &amp;&amp; data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data2() || calculates.nao_futuro2()&lt;0) &amp;&amp; data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data3() || calculates.nao_futuro3()&lt;0) &amp;&amp; data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>hoje</t>
   </si>
   <si>
     <t>Amodiaquina
-Data: {{calculates.date_form_display}}</t>
-  </si>
-  <si>
-    <t>DoseAdjustedDay</t>
-  </si>
-  <si>
-    <t>data('DoseAdjustedDay')=='1' || data('DoseAdjustedDay')=='2'</t>
-  </si>
-  <si>
-    <t>A criança na se encontra em casa</t>
-  </si>
-  <si>
-    <t>Especifica a razão da recusa ou "OUTRO"</t>
-  </si>
-  <si>
-    <t>(calculates.visita_id() != data('DoseAdjustedDay')) ? data('DoseAdjustedDay') : calculates.dia_alterado()</t>
-  </si>
-  <si>
-    <t>Comentario</t>
-  </si>
-  <si>
-    <t>""+ data('id_estudo') + "D" + calculates.dia_corregido()</t>
-  </si>
-  <si>
-    <t>outros_med</t>
-  </si>
-  <si>
-    <t>if // outro_medi</t>
-  </si>
-  <si>
-    <t>data('outros_med')=='2'</t>
-  </si>
-  <si>
-    <t>goto lab</t>
-  </si>
-  <si>
-    <t>else // outro_medi</t>
-  </si>
-  <si>
-    <t>med_adm1</t>
-  </si>
-  <si>
-    <t>Nome do Medicamento</t>
-  </si>
-  <si>
-    <t>date_adm1</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>hora_adm1</t>
-  </si>
-  <si>
-    <t>dose_adm1</t>
-  </si>
-  <si>
-    <t>Nº de comprimido</t>
-  </si>
-  <si>
-    <t>vomitou_adm1</t>
-  </si>
-  <si>
-    <t>data('vomitou_adm1')=='1'</t>
-  </si>
-  <si>
-    <t>hora_vomito_adm1</t>
-  </si>
-  <si>
-    <t>A hora que vomitou S.P?</t>
-  </si>
-  <si>
-    <t>calculates.erro_data1()</t>
-  </si>
-  <si>
-    <t>erro_data1</t>
-  </si>
-  <si>
-    <t>Não se admite falta de informação na datas e nem as datas no futuro</t>
-  </si>
-  <si>
-    <t>Por favor verifica verifica de novo a data introduzida</t>
-  </si>
-  <si>
-    <t>!calculates.erro_data1()</t>
-  </si>
-  <si>
-    <t>outro_med2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para alem de {{data.med_adm1}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
-  </si>
-  <si>
-    <t>data('outro_med2')=='2'</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>med_adm2</t>
-  </si>
-  <si>
-    <t>date_adm2</t>
-  </si>
-  <si>
-    <t>hora_adm2</t>
-  </si>
-  <si>
-    <t>dose_adm2</t>
-  </si>
-  <si>
-    <t>vomitou_adm2</t>
-  </si>
-  <si>
-    <t>data('vomitou_adm2')=='1'</t>
-  </si>
-  <si>
-    <t>hora_vomito_adm2</t>
-  </si>
-  <si>
-    <t>calculates.erro_data2()</t>
-  </si>
-  <si>
-    <t>erro_data2</t>
-  </si>
-  <si>
-    <t>!calculates.erro_data2()</t>
-  </si>
-  <si>
-    <t>outro_med3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para alem de {{data.med_adm1}}  e {{data.med_adm2}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
-  </si>
-  <si>
-    <t>data('outro_med3')=='2'</t>
-  </si>
-  <si>
-    <t>med_adm3</t>
-  </si>
-  <si>
-    <t>date_adm3</t>
-  </si>
-  <si>
-    <t>hora_adm3</t>
-  </si>
-  <si>
-    <t>dose_adm3</t>
-  </si>
-  <si>
-    <t>vomitou_adm3</t>
-  </si>
-  <si>
-    <t>data('vomitou_adm3')=='1'</t>
-  </si>
-  <si>
-    <t>hora_vomito_adm3</t>
-  </si>
-  <si>
-    <t>calculates.erro_data3()</t>
-  </si>
-  <si>
-    <t>erro_data3</t>
-  </si>
-  <si>
-    <t>!calculates.erro_data3()</t>
-  </si>
-  <si>
-    <t>outro_med4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para alem de {{data.med_adm1}} , {{data.med_adm2}}  e {{data.med_adm3}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
-  </si>
-  <si>
-    <t>data('outro_med4')=='2'</t>
-  </si>
-  <si>
-    <t>med_adm4</t>
-  </si>
-  <si>
-    <t>date_adm4</t>
-  </si>
-  <si>
-    <t>hora_adm4</t>
-  </si>
-  <si>
-    <t>dose_adm4</t>
-  </si>
-  <si>
-    <t>vomitou_adm4</t>
-  </si>
-  <si>
-    <t>data('vomitou_adm4')=='1'</t>
-  </si>
-  <si>
-    <t>hora_vomito_adm4</t>
-  </si>
-  <si>
-    <t>calculates.erro_data4()</t>
-  </si>
-  <si>
-    <t>erro_data4</t>
-  </si>
-  <si>
-    <t>!calculates.erro_data4()</t>
-  </si>
-  <si>
-    <t>end if // outro_medi</t>
-  </si>
-  <si>
-    <t>Código:{{data.id_estudo}}     |     D{{calculates.dia_corregido}}</t>
-  </si>
-  <si>
-    <t>ganmamudo</t>
-  </si>
-  <si>
-    <t>Gã-Mamudo</t>
-  </si>
-  <si>
-    <t>sonaco</t>
-  </si>
-  <si>
-    <t>Sonaco</t>
-  </si>
-  <si>
-    <t>nao_data1</t>
-  </si>
-  <si>
-    <t>adate.hasUncertainty(data('date_adm1'))</t>
-  </si>
-  <si>
-    <t>nao_futuro1</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('date_adm1'),calculates.hoje())</t>
-  </si>
-  <si>
-    <t>nao_data2</t>
-  </si>
-  <si>
-    <t>adate.hasUncertainty(data('date_adm2'))</t>
-  </si>
-  <si>
-    <t>nao_futuro2</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('date_adm2'),calculates.hoje())</t>
-  </si>
-  <si>
-    <t>nao_data3</t>
-  </si>
-  <si>
-    <t>adate.hasUncertainty(data('date_adm3'))</t>
-  </si>
-  <si>
-    <t>nao_futuro3</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('date_adm3'),calculates.hoje())</t>
-  </si>
-  <si>
-    <t>nao_data4</t>
-  </si>
-  <si>
-    <t>adate.hasUncertainty(data('date_adm4'))</t>
-  </si>
-  <si>
-    <t>nao_futuro4</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('date_adm4'),calculates.hoje())</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>clicando no botao "Create new instance" ou "Criar nova instancia"</t>
-  </si>
-  <si>
-    <t>se não for tomada coloca 888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('temperatura')==888 || (data('temperatura')&gt;=34  &amp;&amp; data('temperatura')&lt;=43) </t>
-  </si>
-  <si>
-    <t>yesnodk</t>
-  </si>
-  <si>
-    <t>data('outros_med')=='1'</t>
-  </si>
-  <si>
-    <t>data('outros_med2')=='1'</t>
-  </si>
-  <si>
-    <t>data('outros_med3')=='1'</t>
-  </si>
-  <si>
-    <t>data('outros_med4')=='1'</t>
-  </si>
-  <si>
-    <t>data('presenca')=='1'</t>
-  </si>
-  <si>
-    <t>Não sabe</t>
-  </si>
-  <si>
-    <t>(calculates.nao_data1() || calculates.nao_futuro1()&lt;0) &amp;&amp; data('outros_med')=='1'</t>
-  </si>
-  <si>
-    <t>(calculates.nao_data2() || calculates.nao_futuro2()&lt;0) &amp;&amp; data('outros_med2')=='1'</t>
-  </si>
-  <si>
-    <t>(calculates.nao_data3() || calculates.nao_futuro3()&lt;0) &amp;&amp; data('outros_med3')=='1'</t>
-  </si>
-  <si>
-    <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
-  </si>
-  <si>
-    <t>hoje</t>
+Data: {{calculates.date_AQ_display}}</t>
+  </si>
+  <si>
+    <t>date_AQ_display</t>
+  </si>
+  <si>
+    <t>adate.display(data('date_AQ'))</t>
   </si>
 </sst>
 </file>
@@ -1897,11 +1894,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomRight" activeCell="P170" sqref="P170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2018,7 @@
         <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
@@ -2032,7 +2029,7 @@
         <v>151</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2088,7 +2085,7 @@
         <v>124</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -2142,10 +2139,10 @@
         <v>95</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2154,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>158</v>
@@ -2163,7 +2160,7 @@
         <v>96</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2195,7 +2192,7 @@
         <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2212,7 +2209,7 @@
         <v>99</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2229,7 +2226,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2246,7 +2243,7 @@
         <v>101</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2263,7 +2260,7 @@
         <v>102</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2294,7 +2291,7 @@
         <v>106</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2311,7 +2308,7 @@
         <v>104</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2319,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>166</v>
@@ -2328,7 +2325,7 @@
         <v>105</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2345,7 +2342,7 @@
         <v>107</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2411,7 +2408,7 @@
         <v>130</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -2451,7 +2448,7 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -2506,7 +2503,7 @@
         <v>196</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -2526,7 +2523,7 @@
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
@@ -2535,7 +2532,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="P46" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W46" s="2" t="b">
         <v>1</v>
@@ -2552,7 +2549,7 @@
         <v>172</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>268</v>
+        <v>371</v>
       </c>
       <c r="H47" s="15"/>
     </row>
@@ -2575,7 +2572,7 @@
       </c>
       <c r="H49" s="15"/>
       <c r="N49" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="110.25" x14ac:dyDescent="0.25">
@@ -2595,7 +2592,7 @@
       </c>
       <c r="H50" s="15"/>
       <c r="L50" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>206</v>
@@ -2618,7 +2615,7 @@
       </c>
       <c r="H51" s="15"/>
       <c r="N51" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -2676,22 +2673,22 @@
         <v>42</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H58" s="15"/>
       <c r="N58" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="60" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -2724,7 +2721,7 @@
     </row>
     <row r="62" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -2780,15 +2777,15 @@
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H66" s="25"/>
       <c r="M66" s="26"/>
       <c r="N66" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2799,10 +2796,10 @@
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H67" s="25"/>
       <c r="J67" s="24">
@@ -2813,7 +2810,7 @@
       </c>
       <c r="M67" s="26"/>
       <c r="N67" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2824,7 +2821,7 @@
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>118</v>
@@ -2832,7 +2829,7 @@
       <c r="H68" s="25"/>
       <c r="M68" s="26"/>
       <c r="N68" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2843,15 +2840,15 @@
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H69" s="25"/>
       <c r="M69" s="26"/>
       <c r="N69" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2864,7 +2861,7 @@
         <v>42</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>120</v>
@@ -2872,7 +2869,7 @@
       <c r="H70" s="25"/>
       <c r="M70" s="26"/>
       <c r="N70" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2880,11 +2877,11 @@
         <v>45</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M71" s="26"/>
       <c r="N71" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2892,10 +2889,10 @@
         <v>117</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M72" s="26"/>
     </row>
@@ -2905,7 +2902,7 @@
       </c>
       <c r="M73" s="26"/>
       <c r="N73" s="24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2922,7 +2919,7 @@
         <v>45</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M76" s="26"/>
     </row>
@@ -2931,16 +2928,16 @@
         <v>56</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M77" s="26"/>
     </row>
@@ -2961,14 +2958,14 @@
         <v>42</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M80" s="26"/>
       <c r="N80" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2976,19 +2973,19 @@
         <v>45</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M81" s="26"/>
     </row>
     <row r="82" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M82" s="26"/>
     </row>
     <row r="83" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M83" s="26"/>
     </row>
@@ -3002,13 +2999,13 @@
         <v>53</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3016,10 +3013,10 @@
         <v>57</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J86" s="27">
         <v>2020</v>
@@ -3028,7 +3025,7 @@
         <v>2020</v>
       </c>
       <c r="N86" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3036,13 +3033,13 @@
         <v>117</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>118</v>
       </c>
       <c r="N87" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3050,13 +3047,13 @@
         <v>4</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N88" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3067,13 +3064,13 @@
         <v>42</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>120</v>
       </c>
       <c r="N89" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3081,7 +3078,7 @@
         <v>45</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3089,13 +3086,13 @@
         <v>117</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N91" s="27" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3114,7 +3111,7 @@
         <v>45</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3122,16 +3119,16 @@
         <v>56</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I96" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L96" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3150,14 +3147,14 @@
         <v>42</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M99" s="26"/>
       <c r="N99" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -3165,19 +3162,19 @@
         <v>45</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M100" s="26"/>
     </row>
     <row r="101" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M101" s="26"/>
     </row>
     <row r="102" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M102" s="26"/>
     </row>
@@ -3197,13 +3194,13 @@
         <v>53</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N106" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3211,10 +3208,10 @@
         <v>57</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J107" s="27">
         <v>2020</v>
@@ -3223,7 +3220,7 @@
         <v>2020</v>
       </c>
       <c r="N107" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3231,13 +3228,13 @@
         <v>117</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G108" s="27" t="s">
         <v>118</v>
       </c>
       <c r="N108" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3245,13 +3242,13 @@
         <v>4</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N109" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3262,13 +3259,13 @@
         <v>42</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>120</v>
       </c>
       <c r="N110" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3276,7 +3273,7 @@
         <v>45</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3284,13 +3281,13 @@
         <v>117</v>
       </c>
       <c r="F112" s="27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N112" s="27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3309,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3317,16 +3314,16 @@
         <v>56</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L117" s="27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3343,14 +3340,14 @@
         <v>42</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M120" s="26"/>
       <c r="N120" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -3358,19 +3355,19 @@
         <v>45</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M121" s="26"/>
     </row>
     <row r="122" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M122" s="26"/>
     </row>
     <row r="123" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M123" s="26"/>
     </row>
@@ -3386,13 +3383,13 @@
         <v>53</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N127" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3400,10 +3397,10 @@
         <v>57</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J128" s="27">
         <v>2020</v>
@@ -3412,7 +3409,7 @@
         <v>2020</v>
       </c>
       <c r="N128" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3420,13 +3417,13 @@
         <v>117</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>118</v>
       </c>
       <c r="N129" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3434,13 +3431,13 @@
         <v>4</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G130" s="27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N130" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="131" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3451,13 +3448,13 @@
         <v>42</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>120</v>
       </c>
       <c r="N131" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3465,7 +3462,7 @@
         <v>45</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3473,13 +3470,13 @@
         <v>117</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G133" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N133" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3498,7 +3495,7 @@
         <v>45</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3506,16 +3503,16 @@
         <v>56</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G138" s="27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L138" s="27" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3574,7 +3571,7 @@
     </row>
     <row r="145" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="25" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D148" s="2"/>
       <c r="F148" s="2"/>
@@ -3617,10 +3614,10 @@
         <v>56</v>
       </c>
       <c r="F150" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -3628,10 +3625,10 @@
         <v>56</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -3648,10 +3645,10 @@
         <v>56</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -3659,10 +3656,10 @@
         <v>56</v>
       </c>
       <c r="F154" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -3680,21 +3677,21 @@
         <v>181</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D157" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -3753,7 +3750,7 @@
         <v>184</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>183</v>
@@ -3775,13 +3772,13 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D166" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P166" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W166" s="2" t="b">
         <v>1</v>
@@ -3789,10 +3786,10 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D167" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P167" t="s">
         <v>201</v>
@@ -3803,13 +3800,13 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D168" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F168" t="s">
+        <v>260</v>
+      </c>
+      <c r="P168" t="s">
         <v>261</v>
-      </c>
-      <c r="P168" t="s">
-        <v>262</v>
       </c>
       <c r="W168" s="2" t="b">
         <v>1</v>
@@ -3817,13 +3814,13 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D169" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P169" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W169" s="2" t="b">
         <v>1</v>
@@ -3831,13 +3828,13 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D170" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="P170" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="W170" s="2" t="b">
         <v>1</v>
@@ -3851,7 +3848,7 @@
         <v>185</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -3984,7 +3981,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -3995,13 +3992,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B13" s="2">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4066,10 +4063,10 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -4094,10 +4091,10 @@
         <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -4341,7 +4338,7 @@
         <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4388,7 +4385,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,7 +4432,7 @@
         <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4558,35 +4555,35 @@
     </row>
     <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B79" s="2">
         <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5017,10 +5014,10 @@
         <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>127</v>
@@ -5043,10 +5040,10 @@
         <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
         <v>127</v>
@@ -5125,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5145,26 +5142,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5177,34 +5174,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
         <v>261</v>
-      </c>
-      <c r="B8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,159 +5241,159 @@
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
         <v>216</v>
-      </c>
-      <c r="B17" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
         <v>218</v>
-      </c>
-      <c r="B18" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="s">
         <v>243</v>
-      </c>
-      <c r="B19" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
         <v>253</v>
-      </c>
-      <c r="B20" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5733,10 +5730,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5744,7 +5741,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5752,55 +5749,55 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5809,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5820,7 +5817,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5825,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5833,7 @@
         <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5841,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5849,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5860,7 +5857,7 @@
         <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5865,7 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5876,7 +5873,7 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -5884,7 +5881,7 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5889,7 @@
         <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5897,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5905,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +5913,7 @@
         <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5921,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5932,7 +5929,7 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5940,7 +5937,7 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,7 +5945,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,7 +5953,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +5961,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +5969,7 @@
         <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5977,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,7 +5985,7 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +5993,7 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,7 +6001,7 @@
         <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -6012,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -6020,7 +6017,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,7 +6025,7 @@
         <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
